--- a/source_data/49_data.xlsx
+++ b/source_data/49_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingyan.hu\Downloads\Step2_MinSetStaticCopy20210218_reformat&amp;upload\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingyan.hu\Downloads\Step2_MinSetStaticCopy_reformat&amp;upload\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905E08A5-2F12-4F0C-9681-6C0F3AEA761D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275B1BF5-BFAE-4839-8C1B-E1AB1A3EE29F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="201">
   <si>
-    <t>SERIES_DESC</t>
-  </si>
-  <si>
     <t>SDG_REGION</t>
   </si>
   <si>
@@ -546,9 +543,6 @@
     <t>INDICATOR_NUM</t>
   </si>
   <si>
-    <t>SERIES_MINSET</t>
-  </si>
-  <si>
     <t>COMMENT_OBS</t>
   </si>
   <si>
@@ -637,6 +631,12 @@
   </si>
   <si>
     <t>15 years old and over</t>
+  </si>
+  <si>
+    <t>MINSET_SERIES</t>
+  </si>
+  <si>
+    <t>MINSET_SERIES_DESC</t>
   </si>
 </sst>
 </file>
@@ -1491,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L46" workbookViewId="0">
-      <selection activeCell="S62" sqref="S62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,88 +1521,88 @@
   <sheetData>
     <row r="1" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -1613,22 +1613,22 @@
         <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D2" s="1">
         <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2">
         <v>462</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" s="2">
         <v>73.096725460000002</v>
@@ -1637,49 +1637,49 @@
         <v>-0.61438502100000003</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L2" s="1">
         <v>2006</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T2" s="1">
         <v>6.2</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y2" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB2" s="1">
         <v>2017</v>
@@ -1693,22 +1693,22 @@
         <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D3" s="1">
         <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2">
         <v>524</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="2">
         <v>83.94678863</v>
@@ -1717,49 +1717,49 @@
         <v>28.25866332</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L3" s="1">
         <v>2011</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T3" s="1">
         <v>0.4</v>
       </c>
       <c r="U3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X3" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y3" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB3" s="1">
         <v>2017</v>
@@ -1773,22 +1773,22 @@
         <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D4" s="1">
         <v>78</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2">
         <v>804</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I4" s="2">
         <v>31.402708019999999</v>
@@ -1797,49 +1797,49 @@
         <v>49.007359450000003</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L4" s="1">
         <v>2007</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T4" s="1">
         <v>1.3</v>
       </c>
       <c r="U4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y4" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB4" s="1">
         <v>2017</v>
@@ -1853,22 +1853,22 @@
         <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D5" s="1">
         <v>78</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2">
         <v>90</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I5" s="2">
         <v>160.15841169999999</v>
@@ -1877,49 +1877,49 @@
         <v>-9.6223917189999995</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L5" s="1">
         <v>2009</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T5" s="1">
         <v>18</v>
       </c>
       <c r="U5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X5" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y5" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB5" s="1">
         <v>2017</v>
@@ -1933,22 +1933,22 @@
         <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D6" s="1">
         <v>78</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2">
         <v>296</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I6" s="2">
         <v>-157.5643005</v>
@@ -1957,49 +1957,49 @@
         <v>1.7688377319999999</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L6" s="1">
         <v>2008</v>
       </c>
       <c r="N6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T6" s="1">
         <v>9.8000000000000007</v>
       </c>
       <c r="U6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y6" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB6" s="1">
         <v>2017</v>
@@ -2013,22 +2013,22 @@
         <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D7" s="1">
         <v>78</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2">
         <v>548</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I7" s="2">
         <v>167.06797789999999</v>
@@ -2037,49 +2037,49 @@
         <v>-15.34445547</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L7" s="1">
         <v>2009</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T7" s="1">
         <v>33</v>
       </c>
       <c r="U7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X7" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y7" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB7" s="1">
         <v>2017</v>
@@ -2093,22 +2093,22 @@
         <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D8" s="1">
         <v>78</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2">
         <v>776</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I8" s="2">
         <v>-175.19599909999999</v>
@@ -2117,49 +2117,49 @@
         <v>-21.195113289999998</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L8" s="1">
         <v>2009</v>
       </c>
       <c r="N8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T8" s="1">
         <v>6.3</v>
       </c>
       <c r="U8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X8" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y8" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB8" s="1">
         <v>2017</v>
@@ -2173,22 +2173,22 @@
         <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D9" s="1">
         <v>78</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2">
         <v>882</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I9" s="2">
         <v>-172.4430749</v>
@@ -2197,49 +2197,49 @@
         <v>-13.61541469</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L9" s="1">
         <v>2000</v>
       </c>
       <c r="N9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T9" s="1">
         <v>10.6</v>
       </c>
       <c r="U9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X9" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y9" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB9" s="1">
         <v>2017</v>
@@ -2253,22 +2253,22 @@
         <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D10" s="1">
         <v>78</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2">
         <v>120</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I10" s="2">
         <v>12.741982699999999</v>
@@ -2277,49 +2277,49 @@
         <v>5.692387031</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L10" s="1">
         <v>2011</v>
       </c>
       <c r="N10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T10" s="1">
         <v>5</v>
       </c>
       <c r="U10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="W10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="X10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X10" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y10" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB10" s="1">
         <v>2017</v>
@@ -2333,22 +2333,22 @@
         <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D11" s="1">
         <v>78</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="2">
         <v>174</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I11" s="2">
         <v>43.342345649999999</v>
@@ -2357,49 +2357,49 @@
         <v>-11.66121732</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L11" s="1">
         <v>2012</v>
       </c>
       <c r="N11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T11" s="1">
         <v>1.5</v>
       </c>
       <c r="U11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="W11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="X11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X11" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y11" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB11" s="1">
         <v>2017</v>
@@ -2413,22 +2413,22 @@
         <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D12" s="1">
         <v>78</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="2">
         <v>266</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I12" s="2">
         <v>11.787277469999999</v>
@@ -2437,49 +2437,49 @@
         <v>-0.60687619000000004</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L12" s="1">
         <v>2012</v>
       </c>
       <c r="N12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T12" s="1">
         <v>5</v>
       </c>
       <c r="U12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="W12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="X12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X12" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y12" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB12" s="1">
         <v>2017</v>
@@ -2493,22 +2493,22 @@
         <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D13" s="1">
         <v>78</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="2">
         <v>288</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I13" s="2">
         <v>-1.205623522</v>
@@ -2517,49 +2517,49 @@
         <v>7.9648251849999996</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L13" s="1">
         <v>2008</v>
       </c>
       <c r="N13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T13" s="1">
         <v>4.2</v>
       </c>
       <c r="U13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="W13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="X13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X13" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y13" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB13" s="1">
         <v>2017</v>
@@ -2573,22 +2573,22 @@
         <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D14" s="1">
         <v>78</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="2">
         <v>430</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I14" s="2">
         <v>-9.3118790380000007</v>
@@ -2597,49 +2597,49 @@
         <v>6.4483810090000002</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L14" s="1">
         <v>2007</v>
       </c>
       <c r="N14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S14" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T14" s="1">
         <v>2.6</v>
       </c>
       <c r="U14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="W14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="X14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X14" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y14" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB14" s="1">
         <v>2017</v>
@@ -2653,22 +2653,22 @@
         <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D15" s="1">
         <v>78</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" s="2">
         <v>454</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I15" s="2">
         <v>33.488462499999997</v>
@@ -2677,49 +2677,49 @@
         <v>-13.40819859</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L15" s="1">
         <v>2010</v>
       </c>
       <c r="N15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="P15" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S15" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T15" s="1">
         <v>1.7</v>
       </c>
       <c r="U15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="W15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="X15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X15" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y15" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB15" s="1">
         <v>2017</v>
@@ -2733,22 +2733,22 @@
         <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D16" s="1">
         <v>78</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="2">
         <v>566</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I16" s="2">
         <v>8.0973632559999995</v>
@@ -2757,49 +2757,49 @@
         <v>9.5857890250000004</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L16" s="1">
         <v>2008</v>
       </c>
       <c r="N16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="P16" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S16" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T16" s="1">
         <v>1.8</v>
       </c>
       <c r="U16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="W16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="X16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X16" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y16" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB16" s="1">
         <v>2017</v>
@@ -2813,22 +2813,22 @@
         <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D17" s="1">
         <v>78</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="2">
         <v>566</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I17" s="2">
         <v>8.0973632559999995</v>
@@ -2837,49 +2837,49 @@
         <v>9.5857890250000004</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L17" s="1">
         <v>2013</v>
       </c>
       <c r="N17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="P17" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S17" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T17" s="1">
         <v>1.5</v>
       </c>
       <c r="U17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="W17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="X17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X17" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y17" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB17" s="1">
         <v>2017</v>
@@ -2893,22 +2893,22 @@
         <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D18" s="1">
         <v>78</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="2">
         <v>694</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I18" s="2">
         <v>-11.783065840000001</v>
@@ -2917,49 +2917,49 @@
         <v>8.5686041639999999</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L18" s="1">
         <v>2013</v>
       </c>
       <c r="N18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="P18" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S18" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T18" s="1">
         <v>0</v>
       </c>
       <c r="U18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="W18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="X18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X18" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y18" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB18" s="1">
         <v>2017</v>
@@ -2973,22 +2973,22 @@
         <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D19" s="1">
         <v>78</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="2">
         <v>800</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I19" s="2">
         <v>32.391004379999998</v>
@@ -2997,49 +2997,49 @@
         <v>1.2795573309999999</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L19" s="1">
         <v>2011</v>
       </c>
       <c r="N19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="P19" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S19" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T19" s="1">
         <v>3.7</v>
       </c>
       <c r="U19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="W19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="X19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X19" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y19" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB19" s="1">
         <v>2017</v>
@@ -3053,22 +3053,22 @@
         <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D20" s="1">
         <v>78</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="2">
         <v>834</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I20" s="2">
         <v>34.805211819999997</v>
@@ -3077,49 +3077,49 @@
         <v>-6.2653326060000003</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L20" s="1">
         <v>2010</v>
       </c>
       <c r="N20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="P20" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S20" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T20" s="1">
         <v>2.9</v>
       </c>
       <c r="U20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="W20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="X20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X20" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y20" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB20" s="1">
         <v>2017</v>
@@ -3133,22 +3133,22 @@
         <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D21" s="1">
         <v>78</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="2">
         <v>894</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I21" s="2">
         <v>27.850328999999999</v>
@@ -3157,49 +3157,49 @@
         <v>-14.597010559999999</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L21" s="1">
         <v>2007</v>
       </c>
       <c r="N21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="P21" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S21" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T21" s="1">
         <v>2.9</v>
       </c>
       <c r="U21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="W21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="X21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X21" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y21" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB21" s="1">
         <v>2017</v>
@@ -3213,22 +3213,22 @@
         <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D22" s="1">
         <v>78</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="2">
         <v>68</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I22" s="2">
         <v>-64.662242840000005</v>
@@ -3237,49 +3237,49 @@
         <v>-16.71273412</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L22" s="1">
         <v>2003</v>
       </c>
       <c r="N22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="P22" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S22" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q22" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T22" s="1">
         <v>4</v>
       </c>
       <c r="U22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V22" s="1" t="s">
+      <c r="W22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="X22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X22" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y22" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB22" s="1">
         <v>2017</v>
@@ -3293,22 +3293,22 @@
         <v>49</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D23" s="1">
         <v>78</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" s="2">
         <v>68</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I23" s="2">
         <v>-64.662242840000005</v>
@@ -3317,49 +3317,49 @@
         <v>-16.71273412</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L23" s="1">
         <v>2008</v>
       </c>
       <c r="N23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="P23" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S23" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T23" s="1">
         <v>3.7</v>
       </c>
       <c r="U23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="W23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="X23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X23" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y23" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB23" s="1">
         <v>2017</v>
@@ -3373,22 +3373,22 @@
         <v>49</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D24" s="1">
         <v>78</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" s="2">
         <v>170</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I24" s="2">
         <v>-73.074467510000005</v>
@@ -3397,49 +3397,49 @@
         <v>3.8882090460000001</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L24" s="1">
         <v>2005</v>
       </c>
       <c r="N24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="P24" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S24" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T24" s="1">
         <v>6.1</v>
       </c>
       <c r="U24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="W24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="X24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X24" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y24" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB24" s="1">
         <v>2017</v>
@@ -3453,22 +3453,22 @@
         <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D25" s="1">
         <v>78</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25" s="2">
         <v>170</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I25" s="2">
         <v>-73.074467510000005</v>
@@ -3477,49 +3477,49 @@
         <v>3.8882090460000001</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L25" s="1">
         <v>2010</v>
       </c>
       <c r="N25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="P25" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S25" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T25" s="1">
         <v>13.9</v>
       </c>
       <c r="U25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V25" s="1" t="s">
+      <c r="W25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W25" s="1" t="s">
+      <c r="X25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X25" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y25" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB25" s="1">
         <v>2017</v>
@@ -3533,22 +3533,22 @@
         <v>49</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D26" s="1">
         <v>78</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" s="2">
         <v>268</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I26" s="2">
         <v>43.371361499999999</v>
@@ -3557,49 +3557,49 @@
         <v>42.048130280000002</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L26" s="1">
         <v>2009</v>
       </c>
       <c r="N26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="P26" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S26" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q26" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T26" s="1">
         <v>0.2</v>
       </c>
       <c r="U26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V26" s="1" t="s">
+      <c r="W26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="X26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X26" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y26" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB26" s="1">
         <v>2017</v>
@@ -3613,22 +3613,22 @@
         <v>49</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D27" s="1">
         <v>78</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27" s="2">
         <v>417</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I27" s="2">
         <v>74.523248390000006</v>
@@ -3637,49 +3637,49 @@
         <v>41.462045160000002</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L27" s="1">
         <v>2012</v>
       </c>
       <c r="N27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="P27" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S27" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T27" s="1">
         <v>0.1</v>
       </c>
       <c r="U27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="W27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W27" s="1" t="s">
+      <c r="X27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X27" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y27" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB27" s="1">
         <v>2017</v>
@@ -3693,22 +3693,22 @@
         <v>49</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D28" s="1">
         <v>78</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28" s="2">
         <v>608</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I28" s="2">
         <v>120.86014179999999</v>
@@ -3717,49 +3717,49 @@
         <v>14.16591706</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L28" s="1">
         <v>2008</v>
       </c>
       <c r="N28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="P28" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S28" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T28" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="U28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V28" s="1" t="s">
+      <c r="W28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="X28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X28" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y28" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB28" s="1">
         <v>2017</v>
@@ -3773,22 +3773,22 @@
         <v>49</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D29" s="1">
         <v>78</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F29" s="2">
         <v>608</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I29" s="2">
         <v>120.86014179999999</v>
@@ -3797,49 +3797,49 @@
         <v>14.16591706</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L29" s="1">
         <v>2013</v>
       </c>
       <c r="N29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="P29" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S29" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T29" s="1">
         <v>1.6</v>
       </c>
       <c r="U29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="1" t="s">
+      <c r="W29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W29" s="1" t="s">
+      <c r="X29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X29" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y29" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB29" s="1">
         <v>2017</v>
@@ -3853,22 +3853,22 @@
         <v>49</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D30" s="1">
         <v>78</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F30" s="2">
         <v>626</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I30" s="2">
         <v>125.9451052</v>
@@ -3877,49 +3877,49 @@
         <v>-8.7974972470000008</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L30" s="1">
         <v>2009</v>
       </c>
       <c r="N30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="P30" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S30" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T30" s="1">
         <v>0.4</v>
       </c>
       <c r="U30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V30" s="1" t="s">
+      <c r="W30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W30" s="1" t="s">
+      <c r="X30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X30" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y30" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB30" s="1">
         <v>2017</v>
@@ -3933,22 +3933,22 @@
         <v>49</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D31" s="1">
         <v>78</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F31" s="2">
         <v>356</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I31" s="2">
         <v>79.3608464</v>
@@ -3957,52 +3957,52 @@
         <v>22.346420739999999</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L31" s="1">
         <v>2006</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="P31" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S31" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T31" s="1">
         <v>0.3</v>
       </c>
       <c r="U31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="W31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="X31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X31" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y31" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB31" s="1">
         <v>2017</v>
@@ -4016,22 +4016,22 @@
         <v>49</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D32" s="1">
         <v>78</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F32" s="2">
         <v>332</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I32" s="2">
         <v>-72.336409579999994</v>
@@ -4040,52 +4040,52 @@
         <v>18.404265389999999</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L32" s="1">
         <v>2006</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="P32" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S32" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q32" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T32" s="1">
         <v>2</v>
       </c>
       <c r="U32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V32" s="1" t="s">
+      <c r="W32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W32" s="1" t="s">
+      <c r="X32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X32" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y32" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB32" s="1">
         <v>2017</v>
@@ -4099,22 +4099,22 @@
         <v>49</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D33" s="1">
         <v>78</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F33" s="2">
         <v>404</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I33" s="2">
         <v>37.860968159999999</v>
@@ -4123,52 +4123,52 @@
         <v>0.53479727799999999</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L33" s="1">
         <v>2009</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="P33" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S33" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P33" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q33" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T33" s="1">
         <v>3.5</v>
       </c>
       <c r="U33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V33" s="1" t="s">
+      <c r="W33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W33" s="1" t="s">
+      <c r="X33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X33" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y33" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB33" s="1">
         <v>2017</v>
@@ -4182,22 +4182,22 @@
         <v>49</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D34" s="1">
         <v>78</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F34" s="2">
         <v>716</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I34" s="2">
         <v>29.86909584</v>
@@ -4206,52 +4206,52 @@
         <v>-19.000754919999999</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L34" s="1">
         <v>2011</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="P34" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S34" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P34" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T34" s="1">
         <v>1.2</v>
       </c>
       <c r="U34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V34" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V34" s="1" t="s">
+      <c r="W34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W34" s="1" t="s">
+      <c r="X34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X34" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y34" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB34" s="1">
         <v>2017</v>
@@ -4265,22 +4265,22 @@
         <v>49</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D35" s="1">
         <v>78</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F35" s="2">
         <v>180</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I35" s="2">
         <v>23.654965069999999</v>
@@ -4289,52 +4289,52 @@
         <v>-2.8771547320000002</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L35" s="1">
         <v>2014</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O35" s="1" t="s">
+      <c r="P35" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S35" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T35" s="1">
         <v>2.7</v>
       </c>
       <c r="U35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V35" s="1" t="s">
+      <c r="W35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W35" s="1" t="s">
+      <c r="X35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X35" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y35" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB35" s="1">
         <v>2017</v>
@@ -4348,22 +4348,22 @@
         <v>49</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D36" s="1">
         <v>78</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F36" s="2">
         <v>51</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I36" s="2">
         <v>44.938393169999998</v>
@@ -4372,49 +4372,49 @@
         <v>40.294997410000001</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L36" s="1">
         <v>2008</v>
       </c>
       <c r="N36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="P36" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S36" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T36" s="1">
         <v>0.1</v>
       </c>
       <c r="U36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V36" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V36" s="1" t="s">
+      <c r="W36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W36" s="1" t="s">
+      <c r="X36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X36" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y36" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB36" s="1">
         <v>2017</v>
@@ -4428,22 +4428,22 @@
         <v>49</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D37" s="1">
         <v>78</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F37" s="2">
         <v>792</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I37" s="2">
         <v>35.428903290000001</v>
@@ -4452,49 +4452,49 @@
         <v>38.989968400000002</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L37" s="1">
         <v>2008</v>
       </c>
       <c r="N37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O37" s="1" t="s">
+      <c r="P37" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S37" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T37" s="1">
         <v>3.3</v>
       </c>
       <c r="U37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V37" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V37" s="1" t="s">
+      <c r="W37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W37" s="1" t="s">
+      <c r="X37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X37" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y37" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB37" s="1">
         <v>2017</v>
@@ -4508,22 +4508,22 @@
         <v>49</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D38" s="1">
         <v>78</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F38" s="2">
         <v>704</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I38" s="2">
         <v>105.802499</v>
@@ -4532,49 +4532,49 @@
         <v>10.096430789999999</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L38" s="1">
         <v>2010</v>
       </c>
       <c r="N38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O38" s="1" t="s">
+      <c r="P38" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S38" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T38" s="1">
         <v>2.2999999999999998</v>
       </c>
       <c r="U38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V38" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V38" s="1" t="s">
+      <c r="W38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W38" s="1" t="s">
+      <c r="X38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X38" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y38" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB38" s="1">
         <v>2017</v>
@@ -4588,22 +4588,22 @@
         <v>49</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D39" s="1">
         <v>78</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F39" s="2">
         <v>242</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I39" s="2">
         <v>177.96608839999999</v>
@@ -4612,52 +4612,52 @@
         <v>-17.833015660000001</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="1">
         <v>2011</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="P39" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S39" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T39" s="1">
         <v>8.5</v>
       </c>
       <c r="U39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V39" s="1" t="s">
+      <c r="W39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W39" s="1" t="s">
+      <c r="X39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X39" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y39" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB39" s="1">
         <v>2017</v>
@@ -4671,22 +4671,22 @@
         <v>49</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D40" s="1">
         <v>78</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F40" s="2">
         <v>702</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I40" s="2">
         <v>103.8107883</v>
@@ -4695,49 +4695,49 @@
         <v>1.3610091550000001</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L40" s="1">
         <v>2009</v>
       </c>
       <c r="N40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="P40" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S40" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T40" s="1">
         <v>3.3</v>
       </c>
       <c r="U40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V40" s="1" t="s">
+      <c r="W40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W40" s="1" t="s">
+      <c r="X40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X40" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y40" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB40" s="1">
         <v>2017</v>
@@ -4751,22 +4751,22 @@
         <v>49</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D41" s="1">
         <v>78</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F41" s="2">
         <v>36</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I41" s="2">
         <v>134.34994119999999</v>
@@ -4775,52 +4775,52 @@
         <v>-25.577172019999999</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L41" s="1">
         <v>2003</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="P41" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S41" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T41" s="1">
         <v>27</v>
       </c>
       <c r="U41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V41" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V41" s="1" t="s">
+      <c r="W41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W41" s="1" t="s">
+      <c r="X41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X41" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y41" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB41" s="1">
         <v>2017</v>
@@ -4834,22 +4834,22 @@
         <v>49</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D42" s="1">
         <v>78</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F42" s="2">
         <v>40</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I42" s="2">
         <v>14.141724719999999</v>
@@ -4858,49 +4858,49 @@
         <v>47.58704857</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L42" s="1">
         <v>2014</v>
       </c>
       <c r="N42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="P42" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S42" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P42" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q42" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T42" s="1">
         <v>4</v>
       </c>
       <c r="U42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V42" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V42" s="1" t="s">
+      <c r="W42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W42" s="1" t="s">
+      <c r="X42" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X42" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y42" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB42" s="1">
         <v>2017</v>
@@ -4914,22 +4914,22 @@
         <v>49</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D43" s="1">
         <v>78</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F43" s="2">
         <v>56</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I43" s="2">
         <v>4.6609764560000002</v>
@@ -4938,49 +4938,49 @@
         <v>50.641049750000001</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L43" s="1">
         <v>2014</v>
       </c>
       <c r="N43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="P43" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S43" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P43" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q43" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T43" s="1">
         <v>8</v>
       </c>
       <c r="U43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V43" s="1" t="s">
+      <c r="W43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W43" s="1" t="s">
+      <c r="X43" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X43" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y43" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z43" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB43" s="1">
         <v>2017</v>
@@ -4994,22 +4994,22 @@
         <v>49</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D44" s="1">
         <v>78</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F44" s="2">
         <v>100</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I44" s="2">
         <v>25.237631530000002</v>
@@ -5018,49 +5018,49 @@
         <v>42.757313230000001</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L44" s="1">
         <v>2014</v>
       </c>
       <c r="N44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O44" s="1" t="s">
+      <c r="P44" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S44" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P44" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q44" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T44" s="1">
         <v>6</v>
       </c>
       <c r="U44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V44" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V44" s="1" t="s">
+      <c r="W44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W44" s="1" t="s">
+      <c r="X44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X44" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y44" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z44" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB44" s="1">
         <v>2017</v>
@@ -5074,22 +5074,22 @@
         <v>49</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D45" s="1">
         <v>78</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F45" s="2">
         <v>191</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I45" s="2">
         <v>17.958745530000002</v>
@@ -5098,49 +5098,49 @@
         <v>45.451722119999999</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L45" s="1">
         <v>2014</v>
       </c>
       <c r="N45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O45" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="P45" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S45" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P45" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q45" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T45" s="1">
         <v>3</v>
       </c>
       <c r="U45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V45" s="1" t="s">
+      <c r="W45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W45" s="1" t="s">
+      <c r="X45" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X45" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y45" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z45" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB45" s="1">
         <v>2017</v>
@@ -5154,22 +5154,22 @@
         <v>49</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D46" s="1">
         <v>78</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F46" s="2">
         <v>196</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I46" s="2">
         <v>33.222859640000003</v>
@@ -5178,49 +5178,49 @@
         <v>35.056594369999999</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L46" s="1">
         <v>2014</v>
       </c>
       <c r="N46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O46" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="P46" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S46" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P46" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q46" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T46" s="1">
         <v>2</v>
       </c>
       <c r="U46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V46" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V46" s="1" t="s">
+      <c r="W46" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W46" s="1" t="s">
+      <c r="X46" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X46" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y46" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z46" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB46" s="1">
         <v>2017</v>
@@ -5234,22 +5234,22 @@
         <v>49</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D47" s="1">
         <v>78</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F47" s="2">
         <v>203</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I47" s="2">
         <v>15.33151382</v>
@@ -5258,49 +5258,49 @@
         <v>49.739138709999999</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L47" s="1">
         <v>2014</v>
       </c>
       <c r="N47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O47" s="1" t="s">
+      <c r="P47" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S47" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P47" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q47" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="R47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T47" s="1">
         <v>4</v>
       </c>
       <c r="U47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V47" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V47" s="1" t="s">
+      <c r="W47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W47" s="1" t="s">
+      <c r="X47" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X47" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y47" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z47" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB47" s="1">
         <v>2017</v>
@@ -5314,22 +5314,22 @@
         <v>49</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D48" s="1">
         <v>78</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F48" s="2">
         <v>208</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I48" s="2">
         <v>9.3265712829999998</v>
@@ -5338,49 +5338,49 @@
         <v>56.038297210000003</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L48" s="1">
         <v>2014</v>
       </c>
       <c r="N48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O48" s="1" t="s">
+      <c r="P48" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S48" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P48" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q48" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="R48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T48" s="1">
         <v>11</v>
       </c>
       <c r="U48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V48" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V48" s="1" t="s">
+      <c r="W48" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W48" s="1" t="s">
+      <c r="X48" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X48" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y48" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z48" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB48" s="1">
         <v>2017</v>
@@ -5394,22 +5394,22 @@
         <v>49</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D49" s="1">
         <v>78</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F49" s="2">
         <v>246</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I49" s="2">
         <v>23.308447000000001</v>
@@ -5418,49 +5418,49 @@
         <v>61.915867380000002</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L49" s="1">
         <v>2014</v>
       </c>
       <c r="N49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="P49" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q49" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S49" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P49" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q49" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T49" s="1">
         <v>11</v>
       </c>
       <c r="U49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V49" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V49" s="1" t="s">
+      <c r="W49" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W49" s="1" t="s">
+      <c r="X49" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X49" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y49" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB49" s="1">
         <v>2017</v>
@@ -5474,22 +5474,22 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D50" s="1">
         <v>78</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F50" s="2">
         <v>276</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I50" s="2">
         <v>10.3806066</v>
@@ -5498,49 +5498,49 @@
         <v>51.088627430000003</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L50" s="1">
         <v>2014</v>
       </c>
       <c r="N50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O50" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O50" s="1" t="s">
+      <c r="P50" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S50" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P50" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q50" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T50" s="1">
         <v>7</v>
       </c>
       <c r="U50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V50" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V50" s="1" t="s">
+      <c r="W50" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W50" s="1" t="s">
+      <c r="X50" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X50" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y50" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB50" s="1">
         <v>2017</v>
@@ -5554,22 +5554,22 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D51" s="1">
         <v>78</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F51" s="2">
         <v>300</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I51" s="2">
         <v>22.583078270000001</v>
@@ -5578,49 +5578,49 @@
         <v>39.47301873</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L51" s="1">
         <v>2014</v>
       </c>
       <c r="N51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O51" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O51" s="1" t="s">
+      <c r="P51" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S51" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P51" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q51" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T51" s="1">
         <v>1</v>
       </c>
       <c r="U51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V51" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V51" s="1" t="s">
+      <c r="W51" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W51" s="1" t="s">
+      <c r="X51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X51" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y51" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z51" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB51" s="1">
         <v>2017</v>
@@ -5634,22 +5634,22 @@
         <v>49</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D52" s="1">
         <v>78</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F52" s="2">
         <v>348</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I52" s="2">
         <v>19.412215190000001</v>
@@ -5658,49 +5658,49 @@
         <v>47.1651448</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L52" s="1">
         <v>2014</v>
       </c>
       <c r="N52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O52" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O52" s="1" t="s">
+      <c r="P52" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S52" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P52" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q52" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="R52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T52" s="1">
         <v>3</v>
       </c>
       <c r="U52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V52" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V52" s="1" t="s">
+      <c r="W52" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W52" s="1" t="s">
+      <c r="X52" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X52" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y52" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z52" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB52" s="1">
         <v>2017</v>
@@ -5714,22 +5714,22 @@
         <v>49</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D53" s="1">
         <v>78</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F53" s="2">
         <v>372</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I53" s="2">
         <v>-7.1214252719999998</v>
@@ -5738,49 +5738,49 @@
         <v>53.252740539999998</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L53" s="1">
         <v>2014</v>
       </c>
       <c r="N53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O53" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O53" s="1" t="s">
+      <c r="P53" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S53" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P53" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q53" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S53" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T53" s="1">
         <v>5</v>
       </c>
       <c r="U53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V53" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V53" s="1" t="s">
+      <c r="W53" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W53" s="1" t="s">
+      <c r="X53" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X53" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y53" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB53" s="1">
         <v>2017</v>
@@ -5794,22 +5794,22 @@
         <v>49</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="1">
         <v>78</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F54" s="2">
         <v>428</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I54" s="2">
         <v>26.424618760000001</v>
@@ -5818,49 +5818,49 @@
         <v>56.641966359999998</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L54" s="1">
         <v>2014</v>
       </c>
       <c r="N54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O54" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O54" s="1" t="s">
+      <c r="P54" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S54" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P54" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q54" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S54" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T54" s="1">
         <v>7</v>
       </c>
       <c r="U54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V54" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V54" s="1" t="s">
+      <c r="W54" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W54" s="1" t="s">
+      <c r="X54" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X54" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y54" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z54" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB54" s="1">
         <v>2017</v>
@@ -5874,22 +5874,22 @@
         <v>49</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="1">
         <v>78</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F55" s="2">
         <v>440</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I55" s="2">
         <v>23.905178070000002</v>
@@ -5898,49 +5898,49 @@
         <v>55.336803089999997</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L55" s="1">
         <v>2014</v>
       </c>
       <c r="N55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O55" s="1" t="s">
+      <c r="P55" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S55" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P55" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q55" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="R55" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S55" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T55" s="1">
         <v>5</v>
       </c>
       <c r="U55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V55" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V55" s="1" t="s">
+      <c r="W55" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W55" s="1" t="s">
+      <c r="X55" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X55" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y55" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z55" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB55" s="1">
         <v>2017</v>
@@ -5954,22 +5954,22 @@
         <v>49</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="1">
         <v>78</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F56" s="2">
         <v>442</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I56" s="2">
         <v>6.0926565630000002</v>
@@ -5978,49 +5978,49 @@
         <v>49.776795380000003</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L56" s="1">
         <v>2014</v>
       </c>
       <c r="N56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O56" s="1" t="s">
+      <c r="P56" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S56" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P56" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q56" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="R56" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S56" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T56" s="1">
         <v>8</v>
       </c>
       <c r="U56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V56" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V56" s="1" t="s">
+      <c r="W56" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W56" s="1" t="s">
+      <c r="X56" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X56" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y56" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z56" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB56" s="1">
         <v>2017</v>
@@ -6034,22 +6034,22 @@
         <v>49</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="1">
         <v>78</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F57" s="2">
         <v>528</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I57" s="2">
         <v>5.3314805679999999</v>
@@ -6058,49 +6058,49 @@
         <v>51.867288840000001</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L57" s="1">
         <v>2014</v>
       </c>
       <c r="N57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O57" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O57" s="1" t="s">
+      <c r="P57" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q57" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S57" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P57" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q57" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S57" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T57" s="1">
         <v>12</v>
       </c>
       <c r="U57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V57" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V57" s="1" t="s">
+      <c r="W57" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W57" s="1" t="s">
+      <c r="X57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X57" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y57" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB57" s="1">
         <v>2017</v>
@@ -6114,22 +6114,22 @@
         <v>49</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D58" s="1">
         <v>78</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F58" s="2">
         <v>616</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I58" s="2">
         <v>19.40660158</v>
@@ -6138,49 +6138,49 @@
         <v>52.122673300000002</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L58" s="1">
         <v>2014</v>
       </c>
       <c r="N58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O58" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O58" s="1" t="s">
+      <c r="P58" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q58" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S58" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P58" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q58" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="R58" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S58" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T58" s="1">
         <v>2</v>
       </c>
       <c r="U58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V58" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V58" s="1" t="s">
+      <c r="W58" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W58" s="1" t="s">
+      <c r="X58" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X58" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y58" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z58" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB58" s="1">
         <v>2017</v>
@@ -6194,22 +6194,22 @@
         <v>49</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D59" s="1">
         <v>78</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F59" s="2">
         <v>642</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I59" s="2">
         <v>24.98481009</v>
@@ -6218,49 +6218,49 @@
         <v>45.838935630000002</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L59" s="1">
         <v>2014</v>
       </c>
       <c r="N59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O59" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O59" s="1" t="s">
+      <c r="P59" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q59" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S59" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P59" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q59" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S59" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T59" s="1">
         <v>2</v>
       </c>
       <c r="U59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V59" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V59" s="1" t="s">
+      <c r="W59" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W59" s="1" t="s">
+      <c r="X59" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X59" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y59" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z59" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB59" s="1">
         <v>2017</v>
@@ -6274,22 +6274,22 @@
         <v>49</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D60" s="1">
         <v>78</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F60" s="2">
         <v>703</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I60" s="2">
         <v>19.48495604</v>
@@ -6298,49 +6298,49 @@
         <v>48.707414460000003</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L60" s="1">
         <v>2014</v>
       </c>
       <c r="N60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O60" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O60" s="1" t="s">
+      <c r="P60" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q60" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S60" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P60" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q60" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="R60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S60" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T60" s="1">
         <v>4</v>
       </c>
       <c r="U60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V60" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V60" s="1" t="s">
+      <c r="W60" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W60" s="1" t="s">
+      <c r="X60" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X60" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y60" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z60" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB60" s="1">
         <v>2017</v>
@@ -6354,22 +6354,22 @@
         <v>49</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D61" s="1">
         <v>78</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F61" s="2">
         <v>705</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I61" s="2">
         <v>14.82209486</v>
@@ -6378,49 +6378,49 @@
         <v>46.11958061</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L61" s="1">
         <v>2014</v>
       </c>
       <c r="N61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O61" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O61" s="1" t="s">
+      <c r="P61" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q61" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S61" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P61" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q61" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S61" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T61" s="1">
         <v>4</v>
       </c>
       <c r="U61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V61" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V61" s="1" t="s">
+      <c r="W61" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W61" s="1" t="s">
+      <c r="X61" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X61" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y61" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z61" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB61" s="1">
         <v>2017</v>
@@ -6434,22 +6434,22 @@
         <v>49</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D62" s="1">
         <v>78</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F62" s="2">
         <v>724</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I62" s="2">
         <v>-3.5540782960000001</v>
@@ -6458,49 +6458,49 @@
         <v>40.392114720000002</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L62" s="1">
         <v>2014</v>
       </c>
       <c r="N62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O62" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O62" s="1" t="s">
+      <c r="P62" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q62" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S62" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P62" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q62" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="R62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S62" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T62" s="1">
         <v>3</v>
       </c>
       <c r="U62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V62" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V62" s="1" t="s">
+      <c r="W62" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W62" s="1" t="s">
+      <c r="X62" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X62" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y62" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB62" s="1">
         <v>2017</v>
@@ -6514,22 +6514,22 @@
         <v>49</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D63" s="1">
         <v>78</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F63" s="2">
         <v>392</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I63" s="2">
         <v>139.27161029999999</v>
@@ -6538,52 +6538,52 @@
         <v>36.655453899999998</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L63" s="1">
         <v>2003</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O63" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O63" s="1" t="s">
+      <c r="P63" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S63" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q63" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="R63" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S63" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T63" s="1">
         <v>3.5</v>
       </c>
       <c r="U63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V63" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V63" s="1" t="s">
+      <c r="W63" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W63" s="1" t="s">
+      <c r="X63" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X63" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y63" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB63" s="1">
         <v>2017</v>
@@ -6597,22 +6597,22 @@
         <v>49</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D64" s="1">
         <v>78</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F64" s="2">
         <v>76</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I64" s="2">
         <v>-53.08432878</v>
@@ -6621,55 +6621,55 @@
         <v>-10.776685609999999</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L64" s="1">
         <v>2003</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O64" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O64" s="1" t="s">
+      <c r="P64" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S64" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S64" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T64" s="1">
         <v>6.8</v>
       </c>
       <c r="U64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V64" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V64" s="1" t="s">
+      <c r="W64" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W64" s="1" t="s">
+      <c r="X64" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X64" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y64" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z64" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AA64" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AB64" s="1">
         <v>2017</v>
@@ -6683,22 +6683,22 @@
         <v>49</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D65" s="1">
         <v>78</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F65" s="2">
         <v>834</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I65" s="2">
         <v>34.805211819999997</v>
@@ -6707,52 +6707,52 @@
         <v>-6.2653326060000003</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L65" s="1">
         <v>2002</v>
       </c>
       <c r="N65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O65" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O65" s="1" t="s">
+      <c r="P65" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S65" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q65" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="R65" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S65" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T65" s="1">
         <v>11.5</v>
       </c>
       <c r="U65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V65" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V65" s="1" t="s">
+      <c r="W65" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W65" s="1" t="s">
+      <c r="X65" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X65" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y65" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z65" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AA65" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB65" s="1">
         <v>2017</v>
@@ -6766,22 +6766,22 @@
         <v>49</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D66" s="1">
         <v>78</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F66" s="2">
         <v>50</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I66" s="2">
         <v>89.176607880000006</v>
@@ -6790,49 +6790,49 @@
         <v>22.869616220000001</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L66" s="1">
         <v>2011</v>
       </c>
       <c r="N66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O66" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O66" s="1" t="s">
+      <c r="P66" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S66" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q66" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="R66" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S66" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T66" s="1">
         <v>4.4000000000000004</v>
       </c>
       <c r="U66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V66" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V66" s="1" t="s">
+      <c r="W66" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W66" s="1" t="s">
+      <c r="X66" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X66" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y66" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB66" s="1">
         <v>2017</v>
@@ -6846,22 +6846,22 @@
         <v>49</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D67" s="1">
         <v>78</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F67" s="2">
         <v>233</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I67" s="2">
         <v>25.84093481</v>
@@ -6870,49 +6870,49 @@
         <v>58.684871719999997</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L67" s="1">
         <v>2014</v>
       </c>
       <c r="N67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O67" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O67" s="1" t="s">
+      <c r="P67" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S67" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q67" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S67" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T67" s="1">
         <v>9</v>
       </c>
       <c r="U67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V67" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V67" s="1" t="s">
+      <c r="W67" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W67" s="1" t="s">
+      <c r="X67" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X67" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y67" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z67" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB67" s="1">
         <v>2017</v>
@@ -6926,22 +6926,22 @@
         <v>49</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D68" s="1">
         <v>78</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F68" s="2">
         <v>470</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I68" s="2">
         <v>14.44617519</v>
@@ -6950,49 +6950,49 @@
         <v>35.891942749999998</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L68" s="1">
         <v>2014</v>
       </c>
       <c r="N68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O68" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O68" s="1" t="s">
+      <c r="P68" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S68" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P68" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q68" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="R68" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S68" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T68" s="1">
         <v>5</v>
       </c>
       <c r="U68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V68" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V68" s="1" t="s">
+      <c r="W68" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W68" s="1" t="s">
+      <c r="X68" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X68" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y68" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z68" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB68" s="1">
         <v>2017</v>
@@ -7006,22 +7006,22 @@
         <v>49</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D69" s="1">
         <v>78</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F69" s="2">
         <v>688</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I69" s="2">
         <v>20.805876000000001</v>
@@ -7030,49 +7030,49 @@
         <v>44.031456970000001</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L69" s="1">
         <v>2003</v>
       </c>
       <c r="N69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O69" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O69" s="1" t="s">
+      <c r="P69" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S69" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q69" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="R69" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S69" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T69" s="1">
         <v>3.9</v>
       </c>
       <c r="U69" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V69" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V69" s="1" t="s">
+      <c r="W69" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W69" s="1" t="s">
+      <c r="X69" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X69" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y69" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z69" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB69" s="1">
         <v>2017</v>
@@ -7086,22 +7086,22 @@
         <v>49</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D70" s="1">
         <v>78</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F70" s="2">
         <v>231</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I70" s="2">
         <v>39.635052960000003</v>
@@ -7110,49 +7110,49 @@
         <v>8.6312231809999993</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L70" s="1">
         <v>2002</v>
       </c>
       <c r="N70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O70" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O70" s="1" t="s">
+      <c r="P70" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S70" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P70" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q70" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="R70" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S70" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T70" s="1">
         <v>0.3</v>
       </c>
       <c r="U70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V70" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V70" s="1" t="s">
+      <c r="W70" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W70" s="1" t="s">
+      <c r="X70" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X70" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y70" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z70" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB70" s="1">
         <v>2017</v>
@@ -7166,22 +7166,22 @@
         <v>49</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D71" s="1">
         <v>78</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F71" s="2">
         <v>516</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I71" s="2">
         <v>17.219078849999999</v>
@@ -7190,49 +7190,49 @@
         <v>-22.138170680000002</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L71" s="1">
         <v>2002</v>
       </c>
       <c r="N71" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O71" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O71" s="1" t="s">
+      <c r="P71" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S71" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q71" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="R71" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S71" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T71" s="1">
         <v>6.4</v>
       </c>
       <c r="U71" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V71" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V71" s="1" t="s">
+      <c r="W71" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W71" s="1" t="s">
+      <c r="X71" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X71" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y71" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z71" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB71" s="1">
         <v>2017</v>
@@ -7246,22 +7246,22 @@
         <v>49</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D72" s="1">
         <v>78</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F72" s="2">
         <v>764</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I72" s="2">
         <v>101.0202951</v>
@@ -7270,49 +7270,49 @@
         <v>15.13089239</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L72" s="1">
         <v>2005</v>
       </c>
       <c r="N72" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O72" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O72" s="1" t="s">
+      <c r="P72" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S72" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P72" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q72" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="R72" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S72" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T72" s="1">
         <v>6.1</v>
       </c>
       <c r="U72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V72" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V72" s="1" t="s">
+      <c r="W72" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W72" s="1" t="s">
+      <c r="X72" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X72" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y72" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z72" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB72" s="1">
         <v>2017</v>
@@ -7326,22 +7326,22 @@
         <v>49</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D73" s="1">
         <v>78</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F73" s="2">
         <v>764</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I73" s="2">
         <v>101.0202951</v>
@@ -7350,49 +7350,49 @@
         <v>15.13089239</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L73" s="1">
         <v>2002</v>
       </c>
       <c r="N73" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O73" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O73" s="1" t="s">
+      <c r="P73" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S73" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q73" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="R73" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S73" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="T73" s="1">
         <v>2.6</v>
       </c>
       <c r="U73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V73" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V73" s="1" t="s">
+      <c r="W73" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W73" s="1" t="s">
+      <c r="X73" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X73" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="Y73" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z73" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AB73" s="1">
         <v>2017</v>
@@ -7408,15 +7408,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1636FD24704A1439BC275B3C3F1C9C6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96691d2a4c347ae1a5dfc0cee8216ec1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xmlns:ns3="81cf108f-c583-47b3-8493-b6de3c823d22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f18913b399a1948fbd1deaf24005938" ns2:_="" ns3:_="">
     <xsd:import namespace="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
@@ -7639,6 +7630,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7648,14 +7648,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B629CD0-E5EF-4AF0-8E29-670329C3BFDB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD9745EB-8FB7-430A-A615-3D6A1A0A8EEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7674,6 +7666,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B629CD0-E5EF-4AF0-8E29-670329C3BFDB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BA0507E-BEDD-404D-A969-99C7535F08A6}">
   <ds:schemaRefs>

--- a/source_data/49_data.xlsx
+++ b/source_data/49_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingyan.hu\Downloads\Step2_MinSetStaticCopy_reformat&amp;upload\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\gender_data_portal\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275B1BF5-BFAE-4839-8C1B-E1AB1A3EE29F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A964522-0AFE-4A63-8D55-F03050562106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="49 - Proportion of women and gi" sheetId="1" r:id="rId1"/>
@@ -38,12 +38,6 @@
     <t>SDG_REGION</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>ISO3</t>
   </si>
   <si>
@@ -637,6 +631,12 @@
   </si>
   <si>
     <t>MINSET_SERIES_DESC</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -1492,7 +1492,7 @@
   <dimension ref="A1:AB73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,88 +1521,88 @@
   <sheetData>
     <row r="1" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -1613,22 +1613,22 @@
         <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D2" s="1">
         <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2">
         <v>462</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I2" s="2">
         <v>73.096725460000002</v>
@@ -1637,49 +1637,49 @@
         <v>-0.61438502100000003</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L2" s="1">
         <v>2006</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T2" s="1">
         <v>6.2</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y2" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB2" s="1">
         <v>2017</v>
@@ -1693,22 +1693,22 @@
         <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D3" s="1">
         <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2">
         <v>524</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I3" s="2">
         <v>83.94678863</v>
@@ -1717,49 +1717,49 @@
         <v>28.25866332</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L3" s="1">
         <v>2011</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T3" s="1">
         <v>0.4</v>
       </c>
       <c r="U3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y3" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB3" s="1">
         <v>2017</v>
@@ -1773,22 +1773,22 @@
         <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D4" s="1">
         <v>78</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2">
         <v>804</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I4" s="2">
         <v>31.402708019999999</v>
@@ -1797,49 +1797,49 @@
         <v>49.007359450000003</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L4" s="1">
         <v>2007</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T4" s="1">
         <v>1.3</v>
       </c>
       <c r="U4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y4" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB4" s="1">
         <v>2017</v>
@@ -1853,22 +1853,22 @@
         <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D5" s="1">
         <v>78</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2">
         <v>90</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I5" s="2">
         <v>160.15841169999999</v>
@@ -1877,49 +1877,49 @@
         <v>-9.6223917189999995</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L5" s="1">
         <v>2009</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T5" s="1">
         <v>18</v>
       </c>
       <c r="U5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y5" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB5" s="1">
         <v>2017</v>
@@ -1933,22 +1933,22 @@
         <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D6" s="1">
         <v>78</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2">
         <v>296</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I6" s="2">
         <v>-157.5643005</v>
@@ -1957,49 +1957,49 @@
         <v>1.7688377319999999</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L6" s="1">
         <v>2008</v>
       </c>
       <c r="N6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T6" s="1">
         <v>9.8000000000000007</v>
       </c>
       <c r="U6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y6" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB6" s="1">
         <v>2017</v>
@@ -2013,22 +2013,22 @@
         <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D7" s="1">
         <v>78</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2">
         <v>548</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I7" s="2">
         <v>167.06797789999999</v>
@@ -2037,49 +2037,49 @@
         <v>-15.34445547</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L7" s="1">
         <v>2009</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T7" s="1">
         <v>33</v>
       </c>
       <c r="U7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y7" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB7" s="1">
         <v>2017</v>
@@ -2093,22 +2093,22 @@
         <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D8" s="1">
         <v>78</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8" s="2">
         <v>776</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I8" s="2">
         <v>-175.19599909999999</v>
@@ -2117,49 +2117,49 @@
         <v>-21.195113289999998</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L8" s="1">
         <v>2009</v>
       </c>
       <c r="N8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T8" s="1">
         <v>6.3</v>
       </c>
       <c r="U8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y8" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB8" s="1">
         <v>2017</v>
@@ -2173,22 +2173,22 @@
         <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D9" s="1">
         <v>78</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2">
         <v>882</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I9" s="2">
         <v>-172.4430749</v>
@@ -2197,49 +2197,49 @@
         <v>-13.61541469</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L9" s="1">
         <v>2000</v>
       </c>
       <c r="N9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T9" s="1">
         <v>10.6</v>
       </c>
       <c r="U9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y9" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB9" s="1">
         <v>2017</v>
@@ -2253,22 +2253,22 @@
         <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D10" s="1">
         <v>78</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2">
         <v>120</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I10" s="2">
         <v>12.741982699999999</v>
@@ -2277,49 +2277,49 @@
         <v>5.692387031</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L10" s="1">
         <v>2011</v>
       </c>
       <c r="N10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="T10" s="1">
+        <v>5</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P10" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T10" s="1">
-        <v>5</v>
-      </c>
-      <c r="U10" s="1" t="s">
+      <c r="W10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="X10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y10" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB10" s="1">
         <v>2017</v>
@@ -2333,22 +2333,22 @@
         <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D11" s="1">
         <v>78</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F11" s="2">
         <v>174</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I11" s="2">
         <v>43.342345649999999</v>
@@ -2357,49 +2357,49 @@
         <v>-11.66121732</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L11" s="1">
         <v>2012</v>
       </c>
       <c r="N11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T11" s="1">
         <v>1.5</v>
       </c>
       <c r="U11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="X11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y11" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB11" s="1">
         <v>2017</v>
@@ -2413,22 +2413,22 @@
         <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D12" s="1">
         <v>78</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F12" s="2">
         <v>266</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I12" s="2">
         <v>11.787277469999999</v>
@@ -2437,49 +2437,49 @@
         <v>-0.60687619000000004</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L12" s="1">
         <v>2012</v>
       </c>
       <c r="N12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="T12" s="1">
+        <v>5</v>
+      </c>
+      <c r="U12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P12" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S12" s="1" t="s">
+      <c r="V12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T12" s="1">
-        <v>5</v>
-      </c>
-      <c r="U12" s="1" t="s">
+      <c r="W12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="X12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y12" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB12" s="1">
         <v>2017</v>
@@ -2493,22 +2493,22 @@
         <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D13" s="1">
         <v>78</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F13" s="2">
         <v>288</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I13" s="2">
         <v>-1.205623522</v>
@@ -2517,49 +2517,49 @@
         <v>7.9648251849999996</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L13" s="1">
         <v>2008</v>
       </c>
       <c r="N13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T13" s="1">
         <v>4.2</v>
       </c>
       <c r="U13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="X13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y13" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB13" s="1">
         <v>2017</v>
@@ -2573,22 +2573,22 @@
         <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D14" s="1">
         <v>78</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F14" s="2">
         <v>430</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I14" s="2">
         <v>-9.3118790380000007</v>
@@ -2597,49 +2597,49 @@
         <v>6.4483810090000002</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L14" s="1">
         <v>2007</v>
       </c>
       <c r="N14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T14" s="1">
         <v>2.6</v>
       </c>
       <c r="U14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="X14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y14" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB14" s="1">
         <v>2017</v>
@@ -2653,22 +2653,22 @@
         <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D15" s="1">
         <v>78</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F15" s="2">
         <v>454</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I15" s="2">
         <v>33.488462499999997</v>
@@ -2677,49 +2677,49 @@
         <v>-13.40819859</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L15" s="1">
         <v>2010</v>
       </c>
       <c r="N15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T15" s="1">
         <v>1.7</v>
       </c>
       <c r="U15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="X15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y15" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB15" s="1">
         <v>2017</v>
@@ -2733,22 +2733,22 @@
         <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D16" s="1">
         <v>78</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F16" s="2">
         <v>566</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I16" s="2">
         <v>8.0973632559999995</v>
@@ -2757,49 +2757,49 @@
         <v>9.5857890250000004</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L16" s="1">
         <v>2008</v>
       </c>
       <c r="N16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S16" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T16" s="1">
         <v>1.8</v>
       </c>
       <c r="U16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="X16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y16" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB16" s="1">
         <v>2017</v>
@@ -2813,22 +2813,22 @@
         <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D17" s="1">
         <v>78</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F17" s="2">
         <v>566</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I17" s="2">
         <v>8.0973632559999995</v>
@@ -2837,49 +2837,49 @@
         <v>9.5857890250000004</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L17" s="1">
         <v>2013</v>
       </c>
       <c r="N17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T17" s="1">
         <v>1.5</v>
       </c>
       <c r="U17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="X17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y17" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB17" s="1">
         <v>2017</v>
@@ -2893,22 +2893,22 @@
         <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D18" s="1">
         <v>78</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F18" s="2">
         <v>694</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I18" s="2">
         <v>-11.783065840000001</v>
@@ -2917,49 +2917,49 @@
         <v>8.5686041639999999</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L18" s="1">
         <v>2013</v>
       </c>
       <c r="N18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T18" s="1">
         <v>0</v>
       </c>
       <c r="U18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="X18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y18" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB18" s="1">
         <v>2017</v>
@@ -2973,22 +2973,22 @@
         <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D19" s="1">
         <v>78</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="2">
         <v>800</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I19" s="2">
         <v>32.391004379999998</v>
@@ -2997,49 +2997,49 @@
         <v>1.2795573309999999</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L19" s="1">
         <v>2011</v>
       </c>
       <c r="N19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S19" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T19" s="1">
         <v>3.7</v>
       </c>
       <c r="U19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="X19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y19" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB19" s="1">
         <v>2017</v>
@@ -3053,22 +3053,22 @@
         <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D20" s="1">
         <v>78</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F20" s="2">
         <v>834</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I20" s="2">
         <v>34.805211819999997</v>
@@ -3077,49 +3077,49 @@
         <v>-6.2653326060000003</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L20" s="1">
         <v>2010</v>
       </c>
       <c r="N20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T20" s="1">
         <v>2.9</v>
       </c>
       <c r="U20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="X20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y20" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB20" s="1">
         <v>2017</v>
@@ -3133,22 +3133,22 @@
         <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D21" s="1">
         <v>78</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F21" s="2">
         <v>894</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I21" s="2">
         <v>27.850328999999999</v>
@@ -3157,49 +3157,49 @@
         <v>-14.597010559999999</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L21" s="1">
         <v>2007</v>
       </c>
       <c r="N21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T21" s="1">
         <v>2.9</v>
       </c>
       <c r="U21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="X21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y21" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB21" s="1">
         <v>2017</v>
@@ -3213,22 +3213,22 @@
         <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D22" s="1">
         <v>78</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F22" s="2">
         <v>68</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I22" s="2">
         <v>-64.662242840000005</v>
@@ -3237,49 +3237,49 @@
         <v>-16.71273412</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L22" s="1">
         <v>2003</v>
       </c>
       <c r="N22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q22" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T22" s="1">
         <v>4</v>
       </c>
       <c r="U22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V22" s="1" t="s">
+      <c r="X22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y22" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB22" s="1">
         <v>2017</v>
@@ -3293,22 +3293,22 @@
         <v>49</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D23" s="1">
         <v>78</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F23" s="2">
         <v>68</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I23" s="2">
         <v>-64.662242840000005</v>
@@ -3317,49 +3317,49 @@
         <v>-16.71273412</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L23" s="1">
         <v>2008</v>
       </c>
       <c r="N23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T23" s="1">
         <v>3.7</v>
       </c>
       <c r="U23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="X23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y23" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB23" s="1">
         <v>2017</v>
@@ -3373,22 +3373,22 @@
         <v>49</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D24" s="1">
         <v>78</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F24" s="2">
         <v>170</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I24" s="2">
         <v>-73.074467510000005</v>
@@ -3397,49 +3397,49 @@
         <v>3.8882090460000001</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L24" s="1">
         <v>2005</v>
       </c>
       <c r="N24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T24" s="1">
         <v>6.1</v>
       </c>
       <c r="U24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="X24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X24" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y24" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB24" s="1">
         <v>2017</v>
@@ -3453,22 +3453,22 @@
         <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D25" s="1">
         <v>78</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F25" s="2">
         <v>170</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I25" s="2">
         <v>-73.074467510000005</v>
@@ -3477,49 +3477,49 @@
         <v>3.8882090460000001</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L25" s="1">
         <v>2010</v>
       </c>
       <c r="N25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S25" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T25" s="1">
         <v>13.9</v>
       </c>
       <c r="U25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V25" s="1" t="s">
+      <c r="X25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X25" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y25" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB25" s="1">
         <v>2017</v>
@@ -3533,22 +3533,22 @@
         <v>49</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D26" s="1">
         <v>78</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F26" s="2">
         <v>268</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I26" s="2">
         <v>43.371361499999999</v>
@@ -3557,49 +3557,49 @@
         <v>42.048130280000002</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L26" s="1">
         <v>2009</v>
       </c>
       <c r="N26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q26" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T26" s="1">
         <v>0.2</v>
       </c>
       <c r="U26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V26" s="1" t="s">
+      <c r="X26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X26" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y26" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB26" s="1">
         <v>2017</v>
@@ -3613,22 +3613,22 @@
         <v>49</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D27" s="1">
         <v>78</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F27" s="2">
         <v>417</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I27" s="2">
         <v>74.523248390000006</v>
@@ -3637,49 +3637,49 @@
         <v>41.462045160000002</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L27" s="1">
         <v>2012</v>
       </c>
       <c r="N27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T27" s="1">
         <v>0.1</v>
       </c>
       <c r="U27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="X27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X27" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y27" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB27" s="1">
         <v>2017</v>
@@ -3693,22 +3693,22 @@
         <v>49</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D28" s="1">
         <v>78</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F28" s="2">
         <v>608</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I28" s="2">
         <v>120.86014179999999</v>
@@ -3717,49 +3717,49 @@
         <v>14.16591706</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L28" s="1">
         <v>2008</v>
       </c>
       <c r="N28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S28" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T28" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="U28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V28" s="1" t="s">
+      <c r="X28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y28" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB28" s="1">
         <v>2017</v>
@@ -3773,22 +3773,22 @@
         <v>49</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D29" s="1">
         <v>78</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F29" s="2">
         <v>608</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I29" s="2">
         <v>120.86014179999999</v>
@@ -3797,49 +3797,49 @@
         <v>14.16591706</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L29" s="1">
         <v>2013</v>
       </c>
       <c r="N29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T29" s="1">
         <v>1.6</v>
       </c>
       <c r="U29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V29" s="1" t="s">
+      <c r="X29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X29" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y29" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB29" s="1">
         <v>2017</v>
@@ -3853,22 +3853,22 @@
         <v>49</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D30" s="1">
         <v>78</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F30" s="2">
         <v>626</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I30" s="2">
         <v>125.9451052</v>
@@ -3877,49 +3877,49 @@
         <v>-8.7974972470000008</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L30" s="1">
         <v>2009</v>
       </c>
       <c r="N30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S30" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T30" s="1">
         <v>0.4</v>
       </c>
       <c r="U30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V30" s="1" t="s">
+      <c r="X30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X30" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y30" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB30" s="1">
         <v>2017</v>
@@ -3933,22 +3933,22 @@
         <v>49</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D31" s="1">
         <v>78</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F31" s="2">
         <v>356</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I31" s="2">
         <v>79.3608464</v>
@@ -3957,52 +3957,52 @@
         <v>22.346420739999999</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L31" s="1">
         <v>2006</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S31" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T31" s="1">
         <v>0.3</v>
       </c>
       <c r="U31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="X31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X31" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y31" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB31" s="1">
         <v>2017</v>
@@ -4016,22 +4016,22 @@
         <v>49</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D32" s="1">
         <v>78</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F32" s="2">
         <v>332</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I32" s="2">
         <v>-72.336409579999994</v>
@@ -4040,52 +4040,52 @@
         <v>18.404265389999999</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L32" s="1">
         <v>2006</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q32" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T32" s="1">
         <v>2</v>
       </c>
       <c r="U32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V32" s="1" t="s">
+      <c r="X32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X32" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y32" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB32" s="1">
         <v>2017</v>
@@ -4099,22 +4099,22 @@
         <v>49</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D33" s="1">
         <v>78</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F33" s="2">
         <v>404</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I33" s="2">
         <v>37.860968159999999</v>
@@ -4123,52 +4123,52 @@
         <v>0.53479727799999999</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L33" s="1">
         <v>2009</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="N33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P33" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q33" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T33" s="1">
         <v>3.5</v>
       </c>
       <c r="U33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V33" s="1" t="s">
+      <c r="X33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X33" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y33" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB33" s="1">
         <v>2017</v>
@@ -4182,22 +4182,22 @@
         <v>49</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D34" s="1">
         <v>78</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F34" s="2">
         <v>716</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I34" s="2">
         <v>29.86909584</v>
@@ -4206,52 +4206,52 @@
         <v>-19.000754919999999</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L34" s="1">
         <v>2011</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S34" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P34" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T34" s="1">
         <v>1.2</v>
       </c>
       <c r="U34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V34" s="1" t="s">
+      <c r="X34" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X34" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y34" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB34" s="1">
         <v>2017</v>
@@ -4265,22 +4265,22 @@
         <v>49</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D35" s="1">
         <v>78</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F35" s="2">
         <v>180</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I35" s="2">
         <v>23.654965069999999</v>
@@ -4289,52 +4289,52 @@
         <v>-2.8771547320000002</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L35" s="1">
         <v>2014</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T35" s="1">
         <v>2.7</v>
       </c>
       <c r="U35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V35" s="1" t="s">
+      <c r="X35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X35" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y35" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB35" s="1">
         <v>2017</v>
@@ -4348,22 +4348,22 @@
         <v>49</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D36" s="1">
         <v>78</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F36" s="2">
         <v>51</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I36" s="2">
         <v>44.938393169999998</v>
@@ -4372,49 +4372,49 @@
         <v>40.294997410000001</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L36" s="1">
         <v>2008</v>
       </c>
       <c r="N36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S36" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T36" s="1">
         <v>0.1</v>
       </c>
       <c r="U36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V36" s="1" t="s">
+      <c r="X36" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X36" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y36" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB36" s="1">
         <v>2017</v>
@@ -4428,22 +4428,22 @@
         <v>49</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D37" s="1">
         <v>78</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F37" s="2">
         <v>792</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I37" s="2">
         <v>35.428903290000001</v>
@@ -4452,49 +4452,49 @@
         <v>38.989968400000002</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L37" s="1">
         <v>2008</v>
       </c>
       <c r="N37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S37" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T37" s="1">
         <v>3.3</v>
       </c>
       <c r="U37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V37" s="1" t="s">
+      <c r="X37" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X37" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y37" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB37" s="1">
         <v>2017</v>
@@ -4508,22 +4508,22 @@
         <v>49</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D38" s="1">
         <v>78</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F38" s="2">
         <v>704</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I38" s="2">
         <v>105.802499</v>
@@ -4532,49 +4532,49 @@
         <v>10.096430789999999</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L38" s="1">
         <v>2010</v>
       </c>
       <c r="N38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S38" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T38" s="1">
         <v>2.2999999999999998</v>
       </c>
       <c r="U38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V38" s="1" t="s">
+      <c r="X38" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X38" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y38" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB38" s="1">
         <v>2017</v>
@@ -4588,22 +4588,22 @@
         <v>49</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D39" s="1">
         <v>78</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F39" s="2">
         <v>242</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I39" s="2">
         <v>177.96608839999999</v>
@@ -4612,52 +4612,52 @@
         <v>-17.833015660000001</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L39" s="1">
         <v>2011</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S39" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T39" s="1">
         <v>8.5</v>
       </c>
       <c r="U39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V39" s="1" t="s">
+      <c r="X39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X39" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y39" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB39" s="1">
         <v>2017</v>
@@ -4671,22 +4671,22 @@
         <v>49</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D40" s="1">
         <v>78</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F40" s="2">
         <v>702</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I40" s="2">
         <v>103.8107883</v>
@@ -4695,49 +4695,49 @@
         <v>1.3610091550000001</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L40" s="1">
         <v>2009</v>
       </c>
       <c r="N40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S40" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T40" s="1">
         <v>3.3</v>
       </c>
       <c r="U40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V40" s="1" t="s">
+      <c r="X40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X40" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y40" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB40" s="1">
         <v>2017</v>
@@ -4751,22 +4751,22 @@
         <v>49</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D41" s="1">
         <v>78</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F41" s="2">
         <v>36</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I41" s="2">
         <v>134.34994119999999</v>
@@ -4775,52 +4775,52 @@
         <v>-25.577172019999999</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L41" s="1">
         <v>2003</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T41" s="1">
         <v>27</v>
       </c>
       <c r="U41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V41" s="1" t="s">
+      <c r="X41" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W41" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X41" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y41" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB41" s="1">
         <v>2017</v>
@@ -4834,22 +4834,22 @@
         <v>49</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D42" s="1">
         <v>78</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F42" s="2">
         <v>40</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I42" s="2">
         <v>14.141724719999999</v>
@@ -4858,49 +4858,49 @@
         <v>47.58704857</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L42" s="1">
         <v>2014</v>
       </c>
       <c r="N42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P42" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q42" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T42" s="1">
         <v>4</v>
       </c>
       <c r="U42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W42" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V42" s="1" t="s">
+      <c r="X42" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X42" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y42" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB42" s="1">
         <v>2017</v>
@@ -4914,22 +4914,22 @@
         <v>49</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D43" s="1">
         <v>78</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F43" s="2">
         <v>56</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I43" s="2">
         <v>4.6609764560000002</v>
@@ -4938,49 +4938,49 @@
         <v>50.641049750000001</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L43" s="1">
         <v>2014</v>
       </c>
       <c r="N43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P43" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q43" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T43" s="1">
         <v>8</v>
       </c>
       <c r="U43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V43" s="1" t="s">
+      <c r="X43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X43" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y43" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z43" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB43" s="1">
         <v>2017</v>
@@ -4994,22 +4994,22 @@
         <v>49</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D44" s="1">
         <v>78</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F44" s="2">
         <v>100</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I44" s="2">
         <v>25.237631530000002</v>
@@ -5018,49 +5018,49 @@
         <v>42.757313230000001</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L44" s="1">
         <v>2014</v>
       </c>
       <c r="N44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P44" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q44" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T44" s="1">
         <v>6</v>
       </c>
       <c r="U44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V44" s="1" t="s">
+      <c r="X44" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X44" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y44" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z44" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB44" s="1">
         <v>2017</v>
@@ -5074,22 +5074,22 @@
         <v>49</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D45" s="1">
         <v>78</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F45" s="2">
         <v>191</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I45" s="2">
         <v>17.958745530000002</v>
@@ -5098,49 +5098,49 @@
         <v>45.451722119999999</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L45" s="1">
         <v>2014</v>
       </c>
       <c r="N45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P45" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q45" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T45" s="1">
         <v>3</v>
       </c>
       <c r="U45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V45" s="1" t="s">
+      <c r="X45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W45" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X45" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y45" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z45" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB45" s="1">
         <v>2017</v>
@@ -5154,22 +5154,22 @@
         <v>49</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D46" s="1">
         <v>78</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F46" s="2">
         <v>196</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I46" s="2">
         <v>33.222859640000003</v>
@@ -5178,49 +5178,49 @@
         <v>35.056594369999999</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L46" s="1">
         <v>2014</v>
       </c>
       <c r="N46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P46" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q46" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T46" s="1">
         <v>2</v>
       </c>
       <c r="U46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W46" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V46" s="1" t="s">
+      <c r="X46" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X46" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y46" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z46" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB46" s="1">
         <v>2017</v>
@@ -5234,22 +5234,22 @@
         <v>49</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D47" s="1">
         <v>78</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F47" s="2">
         <v>203</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I47" s="2">
         <v>15.33151382</v>
@@ -5258,49 +5258,49 @@
         <v>49.739138709999999</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L47" s="1">
         <v>2014</v>
       </c>
       <c r="N47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P47" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q47" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="R47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T47" s="1">
         <v>4</v>
       </c>
       <c r="U47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W47" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V47" s="1" t="s">
+      <c r="X47" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W47" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X47" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y47" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z47" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB47" s="1">
         <v>2017</v>
@@ -5314,22 +5314,22 @@
         <v>49</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D48" s="1">
         <v>78</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F48" s="2">
         <v>208</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I48" s="2">
         <v>9.3265712829999998</v>
@@ -5338,49 +5338,49 @@
         <v>56.038297210000003</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L48" s="1">
         <v>2014</v>
       </c>
       <c r="N48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P48" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q48" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="R48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T48" s="1">
         <v>11</v>
       </c>
       <c r="U48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W48" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V48" s="1" t="s">
+      <c r="X48" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X48" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y48" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z48" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB48" s="1">
         <v>2017</v>
@@ -5394,22 +5394,22 @@
         <v>49</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D49" s="1">
         <v>78</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F49" s="2">
         <v>246</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I49" s="2">
         <v>23.308447000000001</v>
@@ -5418,49 +5418,49 @@
         <v>61.915867380000002</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L49" s="1">
         <v>2014</v>
       </c>
       <c r="N49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P49" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q49" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P49" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q49" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T49" s="1">
         <v>11</v>
       </c>
       <c r="U49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W49" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V49" s="1" t="s">
+      <c r="X49" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W49" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X49" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y49" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB49" s="1">
         <v>2017</v>
@@ -5474,22 +5474,22 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D50" s="1">
         <v>78</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F50" s="2">
         <v>276</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I50" s="2">
         <v>10.3806066</v>
@@ -5498,49 +5498,49 @@
         <v>51.088627430000003</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L50" s="1">
         <v>2014</v>
       </c>
       <c r="N50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S50" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P50" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q50" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T50" s="1">
         <v>7</v>
       </c>
       <c r="U50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W50" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V50" s="1" t="s">
+      <c r="X50" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X50" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y50" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB50" s="1">
         <v>2017</v>
@@ -5554,22 +5554,22 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D51" s="1">
         <v>78</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F51" s="2">
         <v>300</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I51" s="2">
         <v>22.583078270000001</v>
@@ -5578,49 +5578,49 @@
         <v>39.47301873</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L51" s="1">
         <v>2014</v>
       </c>
       <c r="N51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S51" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P51" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q51" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T51" s="1">
         <v>1</v>
       </c>
       <c r="U51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W51" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V51" s="1" t="s">
+      <c r="X51" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W51" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X51" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y51" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z51" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB51" s="1">
         <v>2017</v>
@@ -5634,22 +5634,22 @@
         <v>49</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D52" s="1">
         <v>78</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F52" s="2">
         <v>348</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I52" s="2">
         <v>19.412215190000001</v>
@@ -5658,49 +5658,49 @@
         <v>47.1651448</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L52" s="1">
         <v>2014</v>
       </c>
       <c r="N52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P52" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q52" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="R52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T52" s="1">
         <v>3</v>
       </c>
       <c r="U52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W52" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V52" s="1" t="s">
+      <c r="X52" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W52" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X52" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y52" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z52" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB52" s="1">
         <v>2017</v>
@@ -5714,22 +5714,22 @@
         <v>49</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D53" s="1">
         <v>78</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F53" s="2">
         <v>372</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I53" s="2">
         <v>-7.1214252719999998</v>
@@ -5738,49 +5738,49 @@
         <v>53.252740539999998</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L53" s="1">
         <v>2014</v>
       </c>
       <c r="N53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P53" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S53" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O53" s="1" t="s">
+      <c r="T53" s="1">
+        <v>5</v>
+      </c>
+      <c r="U53" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P53" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q53" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S53" s="1" t="s">
+      <c r="V53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T53" s="1">
-        <v>5</v>
-      </c>
-      <c r="U53" s="1" t="s">
+      <c r="W53" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V53" s="1" t="s">
+      <c r="X53" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X53" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y53" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB53" s="1">
         <v>2017</v>
@@ -5794,22 +5794,22 @@
         <v>49</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D54" s="1">
         <v>78</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F54" s="2">
         <v>428</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I54" s="2">
         <v>26.424618760000001</v>
@@ -5818,49 +5818,49 @@
         <v>56.641966359999998</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L54" s="1">
         <v>2014</v>
       </c>
       <c r="N54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P54" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q54" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S54" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T54" s="1">
         <v>7</v>
       </c>
       <c r="U54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W54" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V54" s="1" t="s">
+      <c r="X54" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W54" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X54" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y54" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z54" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB54" s="1">
         <v>2017</v>
@@ -5874,22 +5874,22 @@
         <v>49</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" s="1">
         <v>78</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F55" s="2">
         <v>440</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I55" s="2">
         <v>23.905178070000002</v>
@@ -5898,49 +5898,49 @@
         <v>55.336803089999997</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L55" s="1">
         <v>2014</v>
       </c>
       <c r="N55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S55" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O55" s="1" t="s">
+      <c r="T55" s="1">
+        <v>5</v>
+      </c>
+      <c r="U55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P55" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q55" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="R55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S55" s="1" t="s">
+      <c r="V55" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T55" s="1">
-        <v>5</v>
-      </c>
-      <c r="U55" s="1" t="s">
+      <c r="W55" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V55" s="1" t="s">
+      <c r="X55" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W55" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X55" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y55" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z55" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB55" s="1">
         <v>2017</v>
@@ -5954,22 +5954,22 @@
         <v>49</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D56" s="1">
         <v>78</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F56" s="2">
         <v>442</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I56" s="2">
         <v>6.0926565630000002</v>
@@ -5978,49 +5978,49 @@
         <v>49.776795380000003</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L56" s="1">
         <v>2014</v>
       </c>
       <c r="N56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S56" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P56" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q56" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="R56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S56" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T56" s="1">
         <v>8</v>
       </c>
       <c r="U56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W56" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V56" s="1" t="s">
+      <c r="X56" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W56" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X56" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y56" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z56" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB56" s="1">
         <v>2017</v>
@@ -6034,22 +6034,22 @@
         <v>49</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D57" s="1">
         <v>78</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F57" s="2">
         <v>528</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I57" s="2">
         <v>5.3314805679999999</v>
@@ -6058,49 +6058,49 @@
         <v>51.867288840000001</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L57" s="1">
         <v>2014</v>
       </c>
       <c r="N57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P57" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q57" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P57" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q57" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S57" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T57" s="1">
         <v>12</v>
       </c>
       <c r="U57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W57" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V57" s="1" t="s">
+      <c r="X57" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W57" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X57" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y57" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB57" s="1">
         <v>2017</v>
@@ -6114,22 +6114,22 @@
         <v>49</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D58" s="1">
         <v>78</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F58" s="2">
         <v>616</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I58" s="2">
         <v>19.40660158</v>
@@ -6138,49 +6138,49 @@
         <v>52.122673300000002</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L58" s="1">
         <v>2014</v>
       </c>
       <c r="N58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P58" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q58" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P58" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q58" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="R58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S58" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T58" s="1">
         <v>2</v>
       </c>
       <c r="U58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W58" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V58" s="1" t="s">
+      <c r="X58" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W58" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X58" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y58" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z58" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB58" s="1">
         <v>2017</v>
@@ -6194,22 +6194,22 @@
         <v>49</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D59" s="1">
         <v>78</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F59" s="2">
         <v>642</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I59" s="2">
         <v>24.98481009</v>
@@ -6218,49 +6218,49 @@
         <v>45.838935630000002</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L59" s="1">
         <v>2014</v>
       </c>
       <c r="N59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P59" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q59" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P59" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q59" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S59" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T59" s="1">
         <v>2</v>
       </c>
       <c r="U59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W59" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V59" s="1" t="s">
+      <c r="X59" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W59" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X59" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y59" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z59" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB59" s="1">
         <v>2017</v>
@@ -6274,22 +6274,22 @@
         <v>49</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D60" s="1">
         <v>78</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F60" s="2">
         <v>703</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I60" s="2">
         <v>19.48495604</v>
@@ -6298,49 +6298,49 @@
         <v>48.707414460000003</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L60" s="1">
         <v>2014</v>
       </c>
       <c r="N60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P60" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q60" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P60" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q60" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="R60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S60" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T60" s="1">
         <v>4</v>
       </c>
       <c r="U60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W60" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V60" s="1" t="s">
+      <c r="X60" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W60" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X60" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y60" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z60" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB60" s="1">
         <v>2017</v>
@@ -6354,22 +6354,22 @@
         <v>49</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D61" s="1">
         <v>78</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F61" s="2">
         <v>705</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61" s="2">
         <v>14.82209486</v>
@@ -6378,49 +6378,49 @@
         <v>46.11958061</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L61" s="1">
         <v>2014</v>
       </c>
       <c r="N61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q61" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S61" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P61" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q61" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S61" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T61" s="1">
         <v>4</v>
       </c>
       <c r="U61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W61" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V61" s="1" t="s">
+      <c r="X61" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W61" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X61" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y61" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z61" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB61" s="1">
         <v>2017</v>
@@ -6434,22 +6434,22 @@
         <v>49</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D62" s="1">
         <v>78</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F62" s="2">
         <v>724</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I62" s="2">
         <v>-3.5540782960000001</v>
@@ -6458,49 +6458,49 @@
         <v>40.392114720000002</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L62" s="1">
         <v>2014</v>
       </c>
       <c r="N62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P62" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q62" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P62" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q62" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="R62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S62" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T62" s="1">
         <v>3</v>
       </c>
       <c r="U62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W62" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V62" s="1" t="s">
+      <c r="X62" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W62" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X62" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y62" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB62" s="1">
         <v>2017</v>
@@ -6514,22 +6514,22 @@
         <v>49</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D63" s="1">
         <v>78</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F63" s="2">
         <v>392</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I63" s="2">
         <v>139.27161029999999</v>
@@ -6538,52 +6538,52 @@
         <v>36.655453899999998</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L63" s="1">
         <v>2003</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="N63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S63" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q63" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="R63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S63" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T63" s="1">
         <v>3.5</v>
       </c>
       <c r="U63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W63" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V63" s="1" t="s">
+      <c r="X63" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W63" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X63" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y63" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB63" s="1">
         <v>2017</v>
@@ -6597,22 +6597,22 @@
         <v>49</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D64" s="1">
         <v>78</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F64" s="2">
         <v>76</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I64" s="2">
         <v>-53.08432878</v>
@@ -6621,55 +6621,55 @@
         <v>-10.776685609999999</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L64" s="1">
         <v>2003</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="N64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S64" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S64" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T64" s="1">
         <v>6.8</v>
       </c>
       <c r="U64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W64" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V64" s="1" t="s">
+      <c r="X64" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W64" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X64" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y64" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z64" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AA64" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AB64" s="1">
         <v>2017</v>
@@ -6683,22 +6683,22 @@
         <v>49</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D65" s="1">
         <v>78</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F65" s="2">
         <v>834</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I65" s="2">
         <v>34.805211819999997</v>
@@ -6707,52 +6707,52 @@
         <v>-6.2653326060000003</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L65" s="1">
         <v>2002</v>
       </c>
       <c r="N65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S65" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q65" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="R65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S65" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T65" s="1">
         <v>11.5</v>
       </c>
       <c r="U65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W65" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V65" s="1" t="s">
+      <c r="X65" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W65" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X65" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y65" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z65" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AA65" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AB65" s="1">
         <v>2017</v>
@@ -6766,22 +6766,22 @@
         <v>49</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D66" s="1">
         <v>78</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F66" s="2">
         <v>50</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I66" s="2">
         <v>89.176607880000006</v>
@@ -6790,49 +6790,49 @@
         <v>22.869616220000001</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L66" s="1">
         <v>2011</v>
       </c>
       <c r="N66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q66" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="R66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S66" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T66" s="1">
         <v>4.4000000000000004</v>
       </c>
       <c r="U66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W66" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V66" s="1" t="s">
+      <c r="X66" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W66" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X66" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y66" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB66" s="1">
         <v>2017</v>
@@ -6846,22 +6846,22 @@
         <v>49</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D67" s="1">
         <v>78</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F67" s="2">
         <v>233</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I67" s="2">
         <v>25.84093481</v>
@@ -6870,49 +6870,49 @@
         <v>58.684871719999997</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L67" s="1">
         <v>2014</v>
       </c>
       <c r="N67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S67" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q67" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S67" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T67" s="1">
         <v>9</v>
       </c>
       <c r="U67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W67" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V67" s="1" t="s">
+      <c r="X67" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W67" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X67" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y67" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z67" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB67" s="1">
         <v>2017</v>
@@ -6926,22 +6926,22 @@
         <v>49</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D68" s="1">
         <v>78</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F68" s="2">
         <v>470</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I68" s="2">
         <v>14.44617519</v>
@@ -6950,49 +6950,49 @@
         <v>35.891942749999998</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L68" s="1">
         <v>2014</v>
       </c>
       <c r="N68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S68" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O68" s="1" t="s">
+      <c r="T68" s="1">
+        <v>5</v>
+      </c>
+      <c r="U68" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P68" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q68" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="R68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S68" s="1" t="s">
+      <c r="V68" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T68" s="1">
-        <v>5</v>
-      </c>
-      <c r="U68" s="1" t="s">
+      <c r="W68" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V68" s="1" t="s">
+      <c r="X68" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W68" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X68" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y68" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z68" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB68" s="1">
         <v>2017</v>
@@ -7006,22 +7006,22 @@
         <v>49</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D69" s="1">
         <v>78</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F69" s="2">
         <v>688</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I69" s="2">
         <v>20.805876000000001</v>
@@ -7030,49 +7030,49 @@
         <v>44.031456970000001</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L69" s="1">
         <v>2003</v>
       </c>
       <c r="N69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S69" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O69" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q69" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="R69" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S69" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T69" s="1">
         <v>3.9</v>
       </c>
       <c r="U69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W69" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V69" s="1" t="s">
+      <c r="X69" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W69" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X69" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y69" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z69" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB69" s="1">
         <v>2017</v>
@@ -7086,22 +7086,22 @@
         <v>49</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D70" s="1">
         <v>78</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F70" s="2">
         <v>231</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I70" s="2">
         <v>39.635052960000003</v>
@@ -7110,49 +7110,49 @@
         <v>8.6312231809999993</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L70" s="1">
         <v>2002</v>
       </c>
       <c r="N70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S70" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O70" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P70" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q70" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="R70" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S70" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T70" s="1">
         <v>0.3</v>
       </c>
       <c r="U70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W70" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V70" s="1" t="s">
+      <c r="X70" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W70" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X70" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y70" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z70" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB70" s="1">
         <v>2017</v>
@@ -7166,22 +7166,22 @@
         <v>49</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D71" s="1">
         <v>78</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F71" s="2">
         <v>516</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I71" s="2">
         <v>17.219078849999999</v>
@@ -7190,49 +7190,49 @@
         <v>-22.138170680000002</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L71" s="1">
         <v>2002</v>
       </c>
       <c r="N71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S71" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O71" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q71" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="R71" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S71" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T71" s="1">
         <v>6.4</v>
       </c>
       <c r="U71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W71" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V71" s="1" t="s">
+      <c r="X71" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W71" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X71" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y71" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z71" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB71" s="1">
         <v>2017</v>
@@ -7246,22 +7246,22 @@
         <v>49</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D72" s="1">
         <v>78</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F72" s="2">
         <v>764</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I72" s="2">
         <v>101.0202951</v>
@@ -7270,49 +7270,49 @@
         <v>15.13089239</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L72" s="1">
         <v>2005</v>
       </c>
       <c r="N72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O72" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P72" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q72" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="R72" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S72" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T72" s="1">
         <v>6.1</v>
       </c>
       <c r="U72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W72" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V72" s="1" t="s">
+      <c r="X72" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W72" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X72" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y72" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z72" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB72" s="1">
         <v>2017</v>
@@ -7326,22 +7326,22 @@
         <v>49</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D73" s="1">
         <v>78</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F73" s="2">
         <v>764</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I73" s="2">
         <v>101.0202951</v>
@@ -7350,49 +7350,49 @@
         <v>15.13089239</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L73" s="1">
         <v>2002</v>
       </c>
       <c r="N73" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S73" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q73" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="R73" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S73" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="T73" s="1">
         <v>2.6</v>
       </c>
       <c r="U73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W73" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V73" s="1" t="s">
+      <c r="X73" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W73" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X73" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="Y73" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z73" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB73" s="1">
         <v>2017</v>
@@ -7408,6 +7408,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <File xmlns="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1636FD24704A1439BC275B3C3F1C9C6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96691d2a4c347ae1a5dfc0cee8216ec1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xmlns:ns3="81cf108f-c583-47b3-8493-b6de3c823d22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f18913b399a1948fbd1deaf24005938" ns2:_="" ns3:_="">
     <xsd:import namespace="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
@@ -7630,24 +7647,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BA0507E-BEDD-404D-A969-99C7535F08A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <File xmlns="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B629CD0-E5EF-4AF0-8E29-670329C3BFDB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD9745EB-8FB7-430A-A615-3D6A1A0A8EEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7664,22 +7682,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B629CD0-E5EF-4AF0-8E29-670329C3BFDB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BA0507E-BEDD-404D-A969-99C7535F08A6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/source_data/49_data.xlsx
+++ b/source_data/49_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\gender_data_portal\source_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\ARCGIS HUBS\gender_data_portal\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A964522-0AFE-4A63-8D55-F03050562106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81023499-FDAB-4876-B7C1-DBE9EAF881C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-54120" yWindow="-1320" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="49 - Proportion of women and gi" sheetId="1" r:id="rId1"/>
@@ -68,10 +68,6 @@
     <t>UNIT_MEASURE</t>
   </si>
   <si>
-    <t xml:space="preserve">UNIT_MEASURE_DESC
-</t>
-  </si>
-  <si>
     <t>NATURE</t>
   </si>
   <si>
@@ -637,6 +633,9 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>UNIT_MEASURE_DESC</t>
   </si>
 </sst>
 </file>
@@ -1491,8 +1490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,27 +1512,29 @@
     <col min="16" max="16" width="11.85546875" style="1" customWidth="1"/>
     <col min="17" max="17" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="11.85546875" style="1" customWidth="1"/>
-    <col min="20" max="26" width="9.140625" style="1" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="34.42578125" style="1" customWidth="1"/>
+    <col min="23" max="26" width="9.140625" style="1" customWidth="1"/>
     <col min="27" max="27" width="50" style="1" customWidth="1"/>
     <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -1545,10 +1546,10 @@
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>0</v>
@@ -1557,7 +1558,7 @@
         <v>4</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>5</v>
@@ -1566,10 +1567,10 @@
         <v>6</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>7</v>
@@ -1584,25 +1585,25 @@
         <v>10</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="Y1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="AA1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -1613,22 +1614,22 @@
         <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D2" s="1">
         <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2">
         <v>462</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="2">
         <v>73.096725460000002</v>
@@ -1637,49 +1638,49 @@
         <v>-0.61438502100000003</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L2" s="1">
         <v>2006</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T2" s="1">
         <v>6.2</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB2" s="1">
         <v>2017</v>
@@ -1693,22 +1694,22 @@
         <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D3" s="1">
         <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2">
         <v>524</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" s="2">
         <v>83.94678863</v>
@@ -1717,49 +1718,49 @@
         <v>28.25866332</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L3" s="1">
         <v>2011</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T3" s="1">
         <v>0.4</v>
       </c>
       <c r="U3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X3" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB3" s="1">
         <v>2017</v>
@@ -1773,22 +1774,22 @@
         <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D4" s="1">
         <v>78</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2">
         <v>804</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I4" s="2">
         <v>31.402708019999999</v>
@@ -1797,49 +1798,49 @@
         <v>49.007359450000003</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L4" s="1">
         <v>2007</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T4" s="1">
         <v>1.3</v>
       </c>
       <c r="U4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z4" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB4" s="1">
         <v>2017</v>
@@ -1853,22 +1854,22 @@
         <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D5" s="1">
         <v>78</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="2">
         <v>90</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I5" s="2">
         <v>160.15841169999999</v>
@@ -1877,49 +1878,49 @@
         <v>-9.6223917189999995</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L5" s="1">
         <v>2009</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T5" s="1">
         <v>18</v>
       </c>
       <c r="U5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X5" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z5" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB5" s="1">
         <v>2017</v>
@@ -1933,22 +1934,22 @@
         <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D6" s="1">
         <v>78</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="2">
         <v>296</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I6" s="2">
         <v>-157.5643005</v>
@@ -1957,49 +1958,49 @@
         <v>1.7688377319999999</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L6" s="1">
         <v>2008</v>
       </c>
       <c r="N6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T6" s="1">
         <v>9.8000000000000007</v>
       </c>
       <c r="U6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X6" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z6" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB6" s="1">
         <v>2017</v>
@@ -2013,22 +2014,22 @@
         <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D7" s="1">
         <v>78</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="2">
         <v>548</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I7" s="2">
         <v>167.06797789999999</v>
@@ -2037,49 +2038,49 @@
         <v>-15.34445547</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L7" s="1">
         <v>2009</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T7" s="1">
         <v>33</v>
       </c>
       <c r="U7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X7" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z7" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB7" s="1">
         <v>2017</v>
@@ -2093,22 +2094,22 @@
         <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D8" s="1">
         <v>78</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="2">
         <v>776</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I8" s="2">
         <v>-175.19599909999999</v>
@@ -2117,49 +2118,49 @@
         <v>-21.195113289999998</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L8" s="1">
         <v>2009</v>
       </c>
       <c r="N8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T8" s="1">
         <v>6.3</v>
       </c>
       <c r="U8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X8" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z8" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB8" s="1">
         <v>2017</v>
@@ -2173,22 +2174,22 @@
         <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D9" s="1">
         <v>78</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="2">
         <v>882</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I9" s="2">
         <v>-172.4430749</v>
@@ -2197,49 +2198,49 @@
         <v>-13.61541469</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L9" s="1">
         <v>2000</v>
       </c>
       <c r="N9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T9" s="1">
         <v>10.6</v>
       </c>
       <c r="U9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X9" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z9" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB9" s="1">
         <v>2017</v>
@@ -2253,22 +2254,22 @@
         <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D10" s="1">
         <v>78</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="2">
         <v>120</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I10" s="2">
         <v>12.741982699999999</v>
@@ -2277,49 +2278,49 @@
         <v>5.692387031</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L10" s="1">
         <v>2011</v>
       </c>
       <c r="N10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="1">
+        <v>5</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T10" s="1">
-        <v>5</v>
-      </c>
-      <c r="U10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="W10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="X10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X10" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z10" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB10" s="1">
         <v>2017</v>
@@ -2333,22 +2334,22 @@
         <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D11" s="1">
         <v>78</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="2">
         <v>174</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I11" s="2">
         <v>43.342345649999999</v>
@@ -2357,49 +2358,49 @@
         <v>-11.66121732</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L11" s="1">
         <v>2012</v>
       </c>
       <c r="N11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T11" s="1">
         <v>1.5</v>
       </c>
       <c r="U11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="W11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="X11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X11" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y11" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z11" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB11" s="1">
         <v>2017</v>
@@ -2413,22 +2414,22 @@
         <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D12" s="1">
         <v>78</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="2">
         <v>266</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I12" s="2">
         <v>11.787277469999999</v>
@@ -2437,49 +2438,49 @@
         <v>-0.60687619000000004</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L12" s="1">
         <v>2012</v>
       </c>
       <c r="N12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="1">
+        <v>5</v>
+      </c>
+      <c r="U12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T12" s="1">
-        <v>5</v>
-      </c>
-      <c r="U12" s="1" t="s">
+      <c r="V12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="W12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="X12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X12" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y12" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z12" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB12" s="1">
         <v>2017</v>
@@ -2493,22 +2494,22 @@
         <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D13" s="1">
         <v>78</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="2">
         <v>288</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I13" s="2">
         <v>-1.205623522</v>
@@ -2517,49 +2518,49 @@
         <v>7.9648251849999996</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L13" s="1">
         <v>2008</v>
       </c>
       <c r="N13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T13" s="1">
         <v>4.2</v>
       </c>
       <c r="U13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="W13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="X13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X13" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y13" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z13" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB13" s="1">
         <v>2017</v>
@@ -2573,22 +2574,22 @@
         <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D14" s="1">
         <v>78</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="2">
         <v>430</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I14" s="2">
         <v>-9.3118790380000007</v>
@@ -2597,49 +2598,49 @@
         <v>6.4483810090000002</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L14" s="1">
         <v>2007</v>
       </c>
       <c r="N14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T14" s="1">
         <v>2.6</v>
       </c>
       <c r="U14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="W14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="X14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X14" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z14" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB14" s="1">
         <v>2017</v>
@@ -2653,22 +2654,22 @@
         <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D15" s="1">
         <v>78</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="2">
         <v>454</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I15" s="2">
         <v>33.488462499999997</v>
@@ -2677,49 +2678,49 @@
         <v>-13.40819859</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L15" s="1">
         <v>2010</v>
       </c>
       <c r="N15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="P15" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T15" s="1">
         <v>1.7</v>
       </c>
       <c r="U15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="W15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="X15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X15" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z15" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB15" s="1">
         <v>2017</v>
@@ -2733,22 +2734,22 @@
         <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D16" s="1">
         <v>78</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="2">
         <v>566</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I16" s="2">
         <v>8.0973632559999995</v>
@@ -2757,49 +2758,49 @@
         <v>9.5857890250000004</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L16" s="1">
         <v>2008</v>
       </c>
       <c r="N16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="P16" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S16" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T16" s="1">
         <v>1.8</v>
       </c>
       <c r="U16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="W16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="X16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X16" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y16" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z16" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB16" s="1">
         <v>2017</v>
@@ -2813,22 +2814,22 @@
         <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D17" s="1">
         <v>78</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="2">
         <v>566</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I17" s="2">
         <v>8.0973632559999995</v>
@@ -2837,49 +2838,49 @@
         <v>9.5857890250000004</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L17" s="1">
         <v>2013</v>
       </c>
       <c r="N17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="P17" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T17" s="1">
         <v>1.5</v>
       </c>
       <c r="U17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="W17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="X17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X17" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y17" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z17" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB17" s="1">
         <v>2017</v>
@@ -2893,22 +2894,22 @@
         <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D18" s="1">
         <v>78</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="2">
         <v>694</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I18" s="2">
         <v>-11.783065840000001</v>
@@ -2917,49 +2918,49 @@
         <v>8.5686041639999999</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L18" s="1">
         <v>2013</v>
       </c>
       <c r="N18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="P18" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T18" s="1">
         <v>0</v>
       </c>
       <c r="U18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="W18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="X18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X18" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y18" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z18" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB18" s="1">
         <v>2017</v>
@@ -2973,22 +2974,22 @@
         <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D19" s="1">
         <v>78</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="2">
         <v>800</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I19" s="2">
         <v>32.391004379999998</v>
@@ -2997,49 +2998,49 @@
         <v>1.2795573309999999</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L19" s="1">
         <v>2011</v>
       </c>
       <c r="N19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="P19" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S19" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T19" s="1">
         <v>3.7</v>
       </c>
       <c r="U19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="W19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="X19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X19" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y19" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z19" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB19" s="1">
         <v>2017</v>
@@ -3053,22 +3054,22 @@
         <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D20" s="1">
         <v>78</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="2">
         <v>834</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I20" s="2">
         <v>34.805211819999997</v>
@@ -3077,49 +3078,49 @@
         <v>-6.2653326060000003</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L20" s="1">
         <v>2010</v>
       </c>
       <c r="N20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="P20" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T20" s="1">
         <v>2.9</v>
       </c>
       <c r="U20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="W20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="X20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X20" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z20" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB20" s="1">
         <v>2017</v>
@@ -3133,22 +3134,22 @@
         <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D21" s="1">
         <v>78</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" s="2">
         <v>894</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I21" s="2">
         <v>27.850328999999999</v>
@@ -3157,49 +3158,49 @@
         <v>-14.597010559999999</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L21" s="1">
         <v>2007</v>
       </c>
       <c r="N21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="P21" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T21" s="1">
         <v>2.9</v>
       </c>
       <c r="U21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="W21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="X21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X21" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y21" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z21" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB21" s="1">
         <v>2017</v>
@@ -3213,22 +3214,22 @@
         <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D22" s="1">
         <v>78</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" s="2">
         <v>68</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I22" s="2">
         <v>-64.662242840000005</v>
@@ -3237,49 +3238,49 @@
         <v>-16.71273412</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L22" s="1">
         <v>2003</v>
       </c>
       <c r="N22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="P22" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q22" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T22" s="1">
         <v>4</v>
       </c>
       <c r="U22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V22" s="1" t="s">
+      <c r="W22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="X22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X22" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y22" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z22" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z22" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB22" s="1">
         <v>2017</v>
@@ -3293,22 +3294,22 @@
         <v>49</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D23" s="1">
         <v>78</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" s="2">
         <v>68</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I23" s="2">
         <v>-64.662242840000005</v>
@@ -3317,49 +3318,49 @@
         <v>-16.71273412</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L23" s="1">
         <v>2008</v>
       </c>
       <c r="N23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="P23" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T23" s="1">
         <v>3.7</v>
       </c>
       <c r="U23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="W23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="X23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X23" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y23" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z23" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z23" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB23" s="1">
         <v>2017</v>
@@ -3373,22 +3374,22 @@
         <v>49</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D24" s="1">
         <v>78</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" s="2">
         <v>170</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I24" s="2">
         <v>-73.074467510000005</v>
@@ -3397,49 +3398,49 @@
         <v>3.8882090460000001</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L24" s="1">
         <v>2005</v>
       </c>
       <c r="N24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="P24" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T24" s="1">
         <v>6.1</v>
       </c>
       <c r="U24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="W24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="X24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X24" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y24" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z24" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z24" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB24" s="1">
         <v>2017</v>
@@ -3453,22 +3454,22 @@
         <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D25" s="1">
         <v>78</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" s="2">
         <v>170</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I25" s="2">
         <v>-73.074467510000005</v>
@@ -3477,49 +3478,49 @@
         <v>3.8882090460000001</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L25" s="1">
         <v>2010</v>
       </c>
       <c r="N25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="P25" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S25" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T25" s="1">
         <v>13.9</v>
       </c>
       <c r="U25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V25" s="1" t="s">
+      <c r="W25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W25" s="1" t="s">
+      <c r="X25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X25" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y25" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z25" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z25" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB25" s="1">
         <v>2017</v>
@@ -3533,22 +3534,22 @@
         <v>49</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D26" s="1">
         <v>78</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26" s="2">
         <v>268</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I26" s="2">
         <v>43.371361499999999</v>
@@ -3557,49 +3558,49 @@
         <v>42.048130280000002</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L26" s="1">
         <v>2009</v>
       </c>
       <c r="N26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="P26" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q26" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T26" s="1">
         <v>0.2</v>
       </c>
       <c r="U26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V26" s="1" t="s">
+      <c r="W26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="X26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X26" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y26" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z26" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z26" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB26" s="1">
         <v>2017</v>
@@ -3613,22 +3614,22 @@
         <v>49</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D27" s="1">
         <v>78</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27" s="2">
         <v>417</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I27" s="2">
         <v>74.523248390000006</v>
@@ -3637,49 +3638,49 @@
         <v>41.462045160000002</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L27" s="1">
         <v>2012</v>
       </c>
       <c r="N27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="P27" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T27" s="1">
         <v>0.1</v>
       </c>
       <c r="U27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="W27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W27" s="1" t="s">
+      <c r="X27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X27" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z27" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z27" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB27" s="1">
         <v>2017</v>
@@ -3693,22 +3694,22 @@
         <v>49</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D28" s="1">
         <v>78</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F28" s="2">
         <v>608</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I28" s="2">
         <v>120.86014179999999</v>
@@ -3717,49 +3718,49 @@
         <v>14.16591706</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L28" s="1">
         <v>2008</v>
       </c>
       <c r="N28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="P28" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S28" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T28" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="U28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V28" s="1" t="s">
+      <c r="W28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="X28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X28" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z28" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z28" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB28" s="1">
         <v>2017</v>
@@ -3773,22 +3774,22 @@
         <v>49</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D29" s="1">
         <v>78</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29" s="2">
         <v>608</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I29" s="2">
         <v>120.86014179999999</v>
@@ -3797,49 +3798,49 @@
         <v>14.16591706</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L29" s="1">
         <v>2013</v>
       </c>
       <c r="N29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="P29" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T29" s="1">
         <v>1.6</v>
       </c>
       <c r="U29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V29" s="1" t="s">
+      <c r="W29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W29" s="1" t="s">
+      <c r="X29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X29" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y29" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z29" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z29" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB29" s="1">
         <v>2017</v>
@@ -3853,22 +3854,22 @@
         <v>49</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D30" s="1">
         <v>78</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F30" s="2">
         <v>626</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I30" s="2">
         <v>125.9451052</v>
@@ -3877,49 +3878,49 @@
         <v>-8.7974972470000008</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L30" s="1">
         <v>2009</v>
       </c>
       <c r="N30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="P30" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S30" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T30" s="1">
         <v>0.4</v>
       </c>
       <c r="U30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V30" s="1" t="s">
+      <c r="W30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W30" s="1" t="s">
+      <c r="X30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X30" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y30" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z30" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z30" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB30" s="1">
         <v>2017</v>
@@ -3933,22 +3934,22 @@
         <v>49</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D31" s="1">
         <v>78</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F31" s="2">
         <v>356</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I31" s="2">
         <v>79.3608464</v>
@@ -3957,52 +3958,52 @@
         <v>22.346420739999999</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L31" s="1">
         <v>2006</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="P31" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S31" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T31" s="1">
         <v>0.3</v>
       </c>
       <c r="U31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="W31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="X31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X31" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z31" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z31" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB31" s="1">
         <v>2017</v>
@@ -4016,22 +4017,22 @@
         <v>49</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D32" s="1">
         <v>78</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F32" s="2">
         <v>332</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I32" s="2">
         <v>-72.336409579999994</v>
@@ -4040,52 +4041,52 @@
         <v>18.404265389999999</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L32" s="1">
         <v>2006</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="P32" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q32" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T32" s="1">
         <v>2</v>
       </c>
       <c r="U32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V32" s="1" t="s">
+      <c r="W32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W32" s="1" t="s">
+      <c r="X32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X32" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z32" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z32" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB32" s="1">
         <v>2017</v>
@@ -4099,22 +4100,22 @@
         <v>49</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D33" s="1">
         <v>78</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F33" s="2">
         <v>404</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I33" s="2">
         <v>37.860968159999999</v>
@@ -4123,52 +4124,52 @@
         <v>0.53479727799999999</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L33" s="1">
         <v>2009</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="P33" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P33" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q33" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T33" s="1">
         <v>3.5</v>
       </c>
       <c r="U33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V33" s="1" t="s">
+      <c r="W33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W33" s="1" t="s">
+      <c r="X33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X33" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y33" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z33" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z33" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB33" s="1">
         <v>2017</v>
@@ -4182,22 +4183,22 @@
         <v>49</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D34" s="1">
         <v>78</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F34" s="2">
         <v>716</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I34" s="2">
         <v>29.86909584</v>
@@ -4206,52 +4207,52 @@
         <v>-19.000754919999999</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L34" s="1">
         <v>2011</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="P34" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S34" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P34" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T34" s="1">
         <v>1.2</v>
       </c>
       <c r="U34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V34" s="1" t="s">
+      <c r="W34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W34" s="1" t="s">
+      <c r="X34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X34" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y34" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z34" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z34" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB34" s="1">
         <v>2017</v>
@@ -4265,22 +4266,22 @@
         <v>49</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D35" s="1">
         <v>78</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F35" s="2">
         <v>180</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I35" s="2">
         <v>23.654965069999999</v>
@@ -4289,52 +4290,52 @@
         <v>-2.8771547320000002</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L35" s="1">
         <v>2014</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O35" s="1" t="s">
+      <c r="P35" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T35" s="1">
         <v>2.7</v>
       </c>
       <c r="U35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V35" s="1" t="s">
+      <c r="W35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W35" s="1" t="s">
+      <c r="X35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X35" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y35" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z35" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z35" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB35" s="1">
         <v>2017</v>
@@ -4348,22 +4349,22 @@
         <v>49</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D36" s="1">
         <v>78</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F36" s="2">
         <v>51</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I36" s="2">
         <v>44.938393169999998</v>
@@ -4372,49 +4373,49 @@
         <v>40.294997410000001</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L36" s="1">
         <v>2008</v>
       </c>
       <c r="N36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="P36" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S36" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T36" s="1">
         <v>0.1</v>
       </c>
       <c r="U36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V36" s="1" t="s">
+      <c r="W36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W36" s="1" t="s">
+      <c r="X36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X36" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y36" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z36" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z36" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB36" s="1">
         <v>2017</v>
@@ -4428,22 +4429,22 @@
         <v>49</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D37" s="1">
         <v>78</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F37" s="2">
         <v>792</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I37" s="2">
         <v>35.428903290000001</v>
@@ -4452,49 +4453,49 @@
         <v>38.989968400000002</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L37" s="1">
         <v>2008</v>
       </c>
       <c r="N37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O37" s="1" t="s">
+      <c r="P37" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S37" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T37" s="1">
         <v>3.3</v>
       </c>
       <c r="U37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V37" s="1" t="s">
+      <c r="W37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W37" s="1" t="s">
+      <c r="X37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X37" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y37" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z37" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z37" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB37" s="1">
         <v>2017</v>
@@ -4508,22 +4509,22 @@
         <v>49</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D38" s="1">
         <v>78</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F38" s="2">
         <v>704</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I38" s="2">
         <v>105.802499</v>
@@ -4532,49 +4533,49 @@
         <v>10.096430789999999</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L38" s="1">
         <v>2010</v>
       </c>
       <c r="N38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O38" s="1" t="s">
+      <c r="P38" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S38" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T38" s="1">
         <v>2.2999999999999998</v>
       </c>
       <c r="U38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V38" s="1" t="s">
+      <c r="W38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W38" s="1" t="s">
+      <c r="X38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X38" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y38" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z38" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z38" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB38" s="1">
         <v>2017</v>
@@ -4588,22 +4589,22 @@
         <v>49</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D39" s="1">
         <v>78</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F39" s="2">
         <v>242</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="2">
         <v>177.96608839999999</v>
@@ -4612,52 +4613,52 @@
         <v>-17.833015660000001</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L39" s="1">
         <v>2011</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="P39" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S39" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T39" s="1">
         <v>8.5</v>
       </c>
       <c r="U39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V39" s="1" t="s">
+      <c r="W39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W39" s="1" t="s">
+      <c r="X39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X39" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y39" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z39" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z39" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB39" s="1">
         <v>2017</v>
@@ -4671,22 +4672,22 @@
         <v>49</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D40" s="1">
         <v>78</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F40" s="2">
         <v>702</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I40" s="2">
         <v>103.8107883</v>
@@ -4695,49 +4696,49 @@
         <v>1.3610091550000001</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L40" s="1">
         <v>2009</v>
       </c>
       <c r="N40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="P40" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S40" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T40" s="1">
         <v>3.3</v>
       </c>
       <c r="U40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V40" s="1" t="s">
+      <c r="W40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W40" s="1" t="s">
+      <c r="X40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X40" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y40" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z40" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z40" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB40" s="1">
         <v>2017</v>
@@ -4751,22 +4752,22 @@
         <v>49</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D41" s="1">
         <v>78</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F41" s="2">
         <v>36</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I41" s="2">
         <v>134.34994119999999</v>
@@ -4775,52 +4776,52 @@
         <v>-25.577172019999999</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L41" s="1">
         <v>2003</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="P41" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T41" s="1">
         <v>27</v>
       </c>
       <c r="U41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V41" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V41" s="1" t="s">
+      <c r="W41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W41" s="1" t="s">
+      <c r="X41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X41" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y41" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z41" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z41" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB41" s="1">
         <v>2017</v>
@@ -4834,22 +4835,22 @@
         <v>49</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D42" s="1">
         <v>78</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F42" s="2">
         <v>40</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I42" s="2">
         <v>14.141724719999999</v>
@@ -4858,49 +4859,49 @@
         <v>47.58704857</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L42" s="1">
         <v>2014</v>
       </c>
       <c r="N42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="P42" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P42" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q42" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T42" s="1">
         <v>4</v>
       </c>
       <c r="U42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V42" s="1" t="s">
+      <c r="W42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W42" s="1" t="s">
+      <c r="X42" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X42" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y42" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z42" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z42" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB42" s="1">
         <v>2017</v>
@@ -4914,22 +4915,22 @@
         <v>49</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D43" s="1">
         <v>78</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F43" s="2">
         <v>56</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I43" s="2">
         <v>4.6609764560000002</v>
@@ -4938,49 +4939,49 @@
         <v>50.641049750000001</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L43" s="1">
         <v>2014</v>
       </c>
       <c r="N43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="P43" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P43" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q43" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T43" s="1">
         <v>8</v>
       </c>
       <c r="U43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V43" s="1" t="s">
+      <c r="W43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W43" s="1" t="s">
+      <c r="X43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X43" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y43" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z43" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z43" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB43" s="1">
         <v>2017</v>
@@ -4994,22 +4995,22 @@
         <v>49</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D44" s="1">
         <v>78</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F44" s="2">
         <v>100</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I44" s="2">
         <v>25.237631530000002</v>
@@ -5018,49 +5019,49 @@
         <v>42.757313230000001</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L44" s="1">
         <v>2014</v>
       </c>
       <c r="N44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O44" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O44" s="1" t="s">
+      <c r="P44" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P44" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q44" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T44" s="1">
         <v>6</v>
       </c>
       <c r="U44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V44" s="1" t="s">
+      <c r="W44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W44" s="1" t="s">
+      <c r="X44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X44" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y44" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z44" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z44" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB44" s="1">
         <v>2017</v>
@@ -5074,22 +5075,22 @@
         <v>49</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D45" s="1">
         <v>78</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F45" s="2">
         <v>191</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I45" s="2">
         <v>17.958745530000002</v>
@@ -5098,49 +5099,49 @@
         <v>45.451722119999999</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L45" s="1">
         <v>2014</v>
       </c>
       <c r="N45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="P45" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P45" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q45" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T45" s="1">
         <v>3</v>
       </c>
       <c r="U45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V45" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V45" s="1" t="s">
+      <c r="W45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W45" s="1" t="s">
+      <c r="X45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X45" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y45" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z45" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z45" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB45" s="1">
         <v>2017</v>
@@ -5154,22 +5155,22 @@
         <v>49</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D46" s="1">
         <v>78</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F46" s="2">
         <v>196</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I46" s="2">
         <v>33.222859640000003</v>
@@ -5178,49 +5179,49 @@
         <v>35.056594369999999</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L46" s="1">
         <v>2014</v>
       </c>
       <c r="N46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O46" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="P46" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P46" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q46" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T46" s="1">
         <v>2</v>
       </c>
       <c r="U46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V46" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V46" s="1" t="s">
+      <c r="W46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W46" s="1" t="s">
+      <c r="X46" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X46" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y46" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z46" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z46" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB46" s="1">
         <v>2017</v>
@@ -5234,22 +5235,22 @@
         <v>49</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D47" s="1">
         <v>78</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F47" s="2">
         <v>203</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I47" s="2">
         <v>15.33151382</v>
@@ -5258,49 +5259,49 @@
         <v>49.739138709999999</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L47" s="1">
         <v>2014</v>
       </c>
       <c r="N47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O47" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O47" s="1" t="s">
+      <c r="P47" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P47" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q47" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="R47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T47" s="1">
         <v>4</v>
       </c>
       <c r="U47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V47" s="1" t="s">
+      <c r="W47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W47" s="1" t="s">
+      <c r="X47" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X47" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y47" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z47" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z47" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB47" s="1">
         <v>2017</v>
@@ -5314,22 +5315,22 @@
         <v>49</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D48" s="1">
         <v>78</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F48" s="2">
         <v>208</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" s="2">
         <v>9.3265712829999998</v>
@@ -5338,49 +5339,49 @@
         <v>56.038297210000003</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L48" s="1">
         <v>2014</v>
       </c>
       <c r="N48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O48" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O48" s="1" t="s">
+      <c r="P48" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P48" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q48" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="R48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T48" s="1">
         <v>11</v>
       </c>
       <c r="U48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V48" s="1" t="s">
+      <c r="W48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W48" s="1" t="s">
+      <c r="X48" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X48" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y48" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z48" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z48" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB48" s="1">
         <v>2017</v>
@@ -5394,22 +5395,22 @@
         <v>49</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D49" s="1">
         <v>78</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F49" s="2">
         <v>246</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I49" s="2">
         <v>23.308447000000001</v>
@@ -5418,49 +5419,49 @@
         <v>61.915867380000002</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L49" s="1">
         <v>2014</v>
       </c>
       <c r="N49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O49" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="P49" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q49" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P49" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q49" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T49" s="1">
         <v>11</v>
       </c>
       <c r="U49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V49" s="1" t="s">
+      <c r="W49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W49" s="1" t="s">
+      <c r="X49" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X49" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y49" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z49" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z49" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB49" s="1">
         <v>2017</v>
@@ -5474,22 +5475,22 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D50" s="1">
         <v>78</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F50" s="2">
         <v>276</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I50" s="2">
         <v>10.3806066</v>
@@ -5498,49 +5499,49 @@
         <v>51.088627430000003</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L50" s="1">
         <v>2014</v>
       </c>
       <c r="N50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O50" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O50" s="1" t="s">
+      <c r="P50" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S50" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P50" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q50" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T50" s="1">
         <v>7</v>
       </c>
       <c r="U50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V50" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V50" s="1" t="s">
+      <c r="W50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W50" s="1" t="s">
+      <c r="X50" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X50" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y50" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z50" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z50" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB50" s="1">
         <v>2017</v>
@@ -5554,22 +5555,22 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D51" s="1">
         <v>78</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F51" s="2">
         <v>300</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I51" s="2">
         <v>22.583078270000001</v>
@@ -5578,49 +5579,49 @@
         <v>39.47301873</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L51" s="1">
         <v>2014</v>
       </c>
       <c r="N51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O51" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O51" s="1" t="s">
+      <c r="P51" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S51" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P51" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q51" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T51" s="1">
         <v>1</v>
       </c>
       <c r="U51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V51" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V51" s="1" t="s">
+      <c r="W51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W51" s="1" t="s">
+      <c r="X51" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X51" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y51" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z51" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z51" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB51" s="1">
         <v>2017</v>
@@ -5634,22 +5635,22 @@
         <v>49</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D52" s="1">
         <v>78</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F52" s="2">
         <v>348</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I52" s="2">
         <v>19.412215190000001</v>
@@ -5658,49 +5659,49 @@
         <v>47.1651448</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L52" s="1">
         <v>2014</v>
       </c>
       <c r="N52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O52" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O52" s="1" t="s">
+      <c r="P52" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P52" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q52" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="R52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T52" s="1">
         <v>3</v>
       </c>
       <c r="U52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V52" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V52" s="1" t="s">
+      <c r="W52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W52" s="1" t="s">
+      <c r="X52" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X52" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y52" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z52" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z52" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB52" s="1">
         <v>2017</v>
@@ -5714,22 +5715,22 @@
         <v>49</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="1">
         <v>78</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F53" s="2">
         <v>372</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I53" s="2">
         <v>-7.1214252719999998</v>
@@ -5738,49 +5739,49 @@
         <v>53.252740539999998</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L53" s="1">
         <v>2014</v>
       </c>
       <c r="N53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O53" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O53" s="1" t="s">
+      <c r="P53" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P53" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q53" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S53" s="1" t="s">
+      <c r="T53" s="1">
+        <v>5</v>
+      </c>
+      <c r="U53" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T53" s="1">
-        <v>5</v>
-      </c>
-      <c r="U53" s="1" t="s">
+      <c r="V53" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V53" s="1" t="s">
+      <c r="W53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W53" s="1" t="s">
+      <c r="X53" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X53" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y53" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z53" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z53" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB53" s="1">
         <v>2017</v>
@@ -5794,22 +5795,22 @@
         <v>49</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="1">
         <v>78</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F54" s="2">
         <v>428</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I54" s="2">
         <v>26.424618760000001</v>
@@ -5818,49 +5819,49 @@
         <v>56.641966359999998</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L54" s="1">
         <v>2014</v>
       </c>
       <c r="N54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O54" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O54" s="1" t="s">
+      <c r="P54" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P54" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q54" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T54" s="1">
         <v>7</v>
       </c>
       <c r="U54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V54" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V54" s="1" t="s">
+      <c r="W54" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W54" s="1" t="s">
+      <c r="X54" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X54" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y54" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z54" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z54" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB54" s="1">
         <v>2017</v>
@@ -5874,22 +5875,22 @@
         <v>49</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="1">
         <v>78</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F55" s="2">
         <v>440</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I55" s="2">
         <v>23.905178070000002</v>
@@ -5898,49 +5899,49 @@
         <v>55.336803089999997</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L55" s="1">
         <v>2014</v>
       </c>
       <c r="N55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O55" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O55" s="1" t="s">
+      <c r="P55" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S55" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P55" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q55" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="R55" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S55" s="1" t="s">
+      <c r="T55" s="1">
+        <v>5</v>
+      </c>
+      <c r="U55" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T55" s="1">
-        <v>5</v>
-      </c>
-      <c r="U55" s="1" t="s">
+      <c r="V55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V55" s="1" t="s">
+      <c r="W55" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W55" s="1" t="s">
+      <c r="X55" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X55" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y55" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z55" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z55" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB55" s="1">
         <v>2017</v>
@@ -5954,22 +5955,22 @@
         <v>49</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="1">
         <v>78</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F56" s="2">
         <v>442</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I56" s="2">
         <v>6.0926565630000002</v>
@@ -5978,49 +5979,49 @@
         <v>49.776795380000003</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L56" s="1">
         <v>2014</v>
       </c>
       <c r="N56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O56" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O56" s="1" t="s">
+      <c r="P56" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S56" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P56" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q56" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="R56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S56" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T56" s="1">
         <v>8</v>
       </c>
       <c r="U56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V56" s="1" t="s">
+      <c r="W56" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W56" s="1" t="s">
+      <c r="X56" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X56" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y56" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z56" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z56" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB56" s="1">
         <v>2017</v>
@@ -6034,22 +6035,22 @@
         <v>49</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D57" s="1">
         <v>78</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F57" s="2">
         <v>528</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I57" s="2">
         <v>5.3314805679999999</v>
@@ -6058,49 +6059,49 @@
         <v>51.867288840000001</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L57" s="1">
         <v>2014</v>
       </c>
       <c r="N57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O57" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O57" s="1" t="s">
+      <c r="P57" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q57" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P57" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q57" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T57" s="1">
         <v>12</v>
       </c>
       <c r="U57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V57" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V57" s="1" t="s">
+      <c r="W57" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W57" s="1" t="s">
+      <c r="X57" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X57" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y57" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z57" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z57" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB57" s="1">
         <v>2017</v>
@@ -6114,22 +6115,22 @@
         <v>49</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D58" s="1">
         <v>78</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F58" s="2">
         <v>616</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I58" s="2">
         <v>19.40660158</v>
@@ -6138,49 +6139,49 @@
         <v>52.122673300000002</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L58" s="1">
         <v>2014</v>
       </c>
       <c r="N58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O58" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O58" s="1" t="s">
+      <c r="P58" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q58" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P58" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q58" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="R58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T58" s="1">
         <v>2</v>
       </c>
       <c r="U58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V58" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V58" s="1" t="s">
+      <c r="W58" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W58" s="1" t="s">
+      <c r="X58" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X58" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y58" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z58" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z58" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB58" s="1">
         <v>2017</v>
@@ -6194,22 +6195,22 @@
         <v>49</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D59" s="1">
         <v>78</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F59" s="2">
         <v>642</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I59" s="2">
         <v>24.98481009</v>
@@ -6218,49 +6219,49 @@
         <v>45.838935630000002</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L59" s="1">
         <v>2014</v>
       </c>
       <c r="N59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O59" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O59" s="1" t="s">
+      <c r="P59" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q59" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P59" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q59" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T59" s="1">
         <v>2</v>
       </c>
       <c r="U59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V59" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V59" s="1" t="s">
+      <c r="W59" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W59" s="1" t="s">
+      <c r="X59" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X59" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y59" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z59" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z59" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB59" s="1">
         <v>2017</v>
@@ -6274,22 +6275,22 @@
         <v>49</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D60" s="1">
         <v>78</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F60" s="2">
         <v>703</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I60" s="2">
         <v>19.48495604</v>
@@ -6298,49 +6299,49 @@
         <v>48.707414460000003</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L60" s="1">
         <v>2014</v>
       </c>
       <c r="N60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O60" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O60" s="1" t="s">
+      <c r="P60" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q60" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P60" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q60" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="R60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T60" s="1">
         <v>4</v>
       </c>
       <c r="U60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V60" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V60" s="1" t="s">
+      <c r="W60" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W60" s="1" t="s">
+      <c r="X60" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X60" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y60" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z60" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z60" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB60" s="1">
         <v>2017</v>
@@ -6354,22 +6355,22 @@
         <v>49</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D61" s="1">
         <v>78</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F61" s="2">
         <v>705</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I61" s="2">
         <v>14.82209486</v>
@@ -6378,49 +6379,49 @@
         <v>46.11958061</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L61" s="1">
         <v>2014</v>
       </c>
       <c r="N61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O61" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O61" s="1" t="s">
+      <c r="P61" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q61" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S61" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P61" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q61" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S61" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T61" s="1">
         <v>4</v>
       </c>
       <c r="U61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V61" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V61" s="1" t="s">
+      <c r="W61" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W61" s="1" t="s">
+      <c r="X61" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X61" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y61" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z61" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z61" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB61" s="1">
         <v>2017</v>
@@ -6434,22 +6435,22 @@
         <v>49</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D62" s="1">
         <v>78</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F62" s="2">
         <v>724</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I62" s="2">
         <v>-3.5540782960000001</v>
@@ -6458,49 +6459,49 @@
         <v>40.392114720000002</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L62" s="1">
         <v>2014</v>
       </c>
       <c r="N62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O62" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O62" s="1" t="s">
+      <c r="P62" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q62" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P62" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q62" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="R62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T62" s="1">
         <v>3</v>
       </c>
       <c r="U62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V62" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V62" s="1" t="s">
+      <c r="W62" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W62" s="1" t="s">
+      <c r="X62" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X62" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y62" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z62" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z62" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB62" s="1">
         <v>2017</v>
@@ -6514,22 +6515,22 @@
         <v>49</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D63" s="1">
         <v>78</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F63" s="2">
         <v>392</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I63" s="2">
         <v>139.27161029999999</v>
@@ -6538,52 +6539,52 @@
         <v>36.655453899999998</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L63" s="1">
         <v>2003</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O63" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O63" s="1" t="s">
+      <c r="P63" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S63" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q63" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="R63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S63" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T63" s="1">
         <v>3.5</v>
       </c>
       <c r="U63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V63" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V63" s="1" t="s">
+      <c r="W63" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W63" s="1" t="s">
+      <c r="X63" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X63" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y63" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z63" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z63" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB63" s="1">
         <v>2017</v>
@@ -6597,22 +6598,22 @@
         <v>49</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D64" s="1">
         <v>78</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F64" s="2">
         <v>76</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I64" s="2">
         <v>-53.08432878</v>
@@ -6621,55 +6622,55 @@
         <v>-10.776685609999999</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L64" s="1">
         <v>2003</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O64" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O64" s="1" t="s">
+      <c r="P64" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S64" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S64" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T64" s="1">
         <v>6.8</v>
       </c>
       <c r="U64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V64" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V64" s="1" t="s">
+      <c r="W64" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W64" s="1" t="s">
+      <c r="X64" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X64" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y64" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z64" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="Z64" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="AA64" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB64" s="1">
         <v>2017</v>
@@ -6683,22 +6684,22 @@
         <v>49</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D65" s="1">
         <v>78</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F65" s="2">
         <v>834</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I65" s="2">
         <v>34.805211819999997</v>
@@ -6707,52 +6708,52 @@
         <v>-6.2653326060000003</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L65" s="1">
         <v>2002</v>
       </c>
       <c r="N65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O65" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O65" s="1" t="s">
+      <c r="P65" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S65" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q65" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="R65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S65" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T65" s="1">
         <v>11.5</v>
       </c>
       <c r="U65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V65" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V65" s="1" t="s">
+      <c r="W65" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W65" s="1" t="s">
+      <c r="X65" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X65" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y65" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z65" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="Z65" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="AA65" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB65" s="1">
         <v>2017</v>
@@ -6766,22 +6767,22 @@
         <v>49</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D66" s="1">
         <v>78</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F66" s="2">
         <v>50</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I66" s="2">
         <v>89.176607880000006</v>
@@ -6790,49 +6791,49 @@
         <v>22.869616220000001</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L66" s="1">
         <v>2011</v>
       </c>
       <c r="N66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O66" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O66" s="1" t="s">
+      <c r="P66" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q66" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="R66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T66" s="1">
         <v>4.4000000000000004</v>
       </c>
       <c r="U66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V66" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V66" s="1" t="s">
+      <c r="W66" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W66" s="1" t="s">
+      <c r="X66" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X66" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y66" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z66" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z66" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB66" s="1">
         <v>2017</v>
@@ -6846,22 +6847,22 @@
         <v>49</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D67" s="1">
         <v>78</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F67" s="2">
         <v>233</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I67" s="2">
         <v>25.84093481</v>
@@ -6870,49 +6871,49 @@
         <v>58.684871719999997</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L67" s="1">
         <v>2014</v>
       </c>
       <c r="N67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O67" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O67" s="1" t="s">
+      <c r="P67" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S67" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q67" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S67" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T67" s="1">
         <v>9</v>
       </c>
       <c r="U67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V67" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V67" s="1" t="s">
+      <c r="W67" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W67" s="1" t="s">
+      <c r="X67" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X67" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y67" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z67" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z67" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB67" s="1">
         <v>2017</v>
@@ -6926,22 +6927,22 @@
         <v>49</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D68" s="1">
         <v>78</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F68" s="2">
         <v>470</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I68" s="2">
         <v>14.44617519</v>
@@ -6950,49 +6951,49 @@
         <v>35.891942749999998</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L68" s="1">
         <v>2014</v>
       </c>
       <c r="N68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O68" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O68" s="1" t="s">
+      <c r="P68" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S68" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P68" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q68" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="R68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S68" s="1" t="s">
+      <c r="T68" s="1">
+        <v>5</v>
+      </c>
+      <c r="U68" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T68" s="1">
-        <v>5</v>
-      </c>
-      <c r="U68" s="1" t="s">
+      <c r="V68" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V68" s="1" t="s">
+      <c r="W68" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W68" s="1" t="s">
+      <c r="X68" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X68" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y68" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z68" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z68" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB68" s="1">
         <v>2017</v>
@@ -7006,22 +7007,22 @@
         <v>49</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D69" s="1">
         <v>78</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F69" s="2">
         <v>688</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I69" s="2">
         <v>20.805876000000001</v>
@@ -7030,49 +7031,49 @@
         <v>44.031456970000001</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L69" s="1">
         <v>2003</v>
       </c>
       <c r="N69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O69" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O69" s="1" t="s">
+      <c r="P69" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S69" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q69" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="R69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S69" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T69" s="1">
         <v>3.9</v>
       </c>
       <c r="U69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V69" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V69" s="1" t="s">
+      <c r="W69" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W69" s="1" t="s">
+      <c r="X69" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X69" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y69" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z69" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z69" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB69" s="1">
         <v>2017</v>
@@ -7086,22 +7087,22 @@
         <v>49</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D70" s="1">
         <v>78</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F70" s="2">
         <v>231</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I70" s="2">
         <v>39.635052960000003</v>
@@ -7110,49 +7111,49 @@
         <v>8.6312231809999993</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L70" s="1">
         <v>2002</v>
       </c>
       <c r="N70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O70" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O70" s="1" t="s">
+      <c r="P70" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S70" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P70" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q70" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="R70" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S70" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T70" s="1">
         <v>0.3</v>
       </c>
       <c r="U70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V70" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V70" s="1" t="s">
+      <c r="W70" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W70" s="1" t="s">
+      <c r="X70" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X70" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y70" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z70" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z70" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB70" s="1">
         <v>2017</v>
@@ -7166,22 +7167,22 @@
         <v>49</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D71" s="1">
         <v>78</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F71" s="2">
         <v>516</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I71" s="2">
         <v>17.219078849999999</v>
@@ -7190,49 +7191,49 @@
         <v>-22.138170680000002</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L71" s="1">
         <v>2002</v>
       </c>
       <c r="N71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O71" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O71" s="1" t="s">
+      <c r="P71" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S71" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q71" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="R71" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S71" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T71" s="1">
         <v>6.4</v>
       </c>
       <c r="U71" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V71" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V71" s="1" t="s">
+      <c r="W71" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W71" s="1" t="s">
+      <c r="X71" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X71" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y71" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z71" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z71" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB71" s="1">
         <v>2017</v>
@@ -7246,22 +7247,22 @@
         <v>49</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D72" s="1">
         <v>78</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F72" s="2">
         <v>764</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I72" s="2">
         <v>101.0202951</v>
@@ -7270,49 +7271,49 @@
         <v>15.13089239</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L72" s="1">
         <v>2005</v>
       </c>
       <c r="N72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O72" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O72" s="1" t="s">
+      <c r="P72" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P72" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q72" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="R72" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T72" s="1">
         <v>6.1</v>
       </c>
       <c r="U72" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V72" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V72" s="1" t="s">
+      <c r="W72" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W72" s="1" t="s">
+      <c r="X72" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X72" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y72" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z72" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z72" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB72" s="1">
         <v>2017</v>
@@ -7326,22 +7327,22 @@
         <v>49</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D73" s="1">
         <v>78</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F73" s="2">
         <v>764</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I73" s="2">
         <v>101.0202951</v>
@@ -7350,49 +7351,49 @@
         <v>15.13089239</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L73" s="1">
         <v>2002</v>
       </c>
       <c r="N73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O73" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O73" s="1" t="s">
+      <c r="P73" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S73" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q73" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="R73" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S73" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="T73" s="1">
         <v>2.6</v>
       </c>
       <c r="U73" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V73" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V73" s="1" t="s">
+      <c r="W73" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W73" s="1" t="s">
+      <c r="X73" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X73" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="Y73" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z73" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="Z73" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AB73" s="1">
         <v>2017</v>
@@ -7408,23 +7409,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <File xmlns="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1636FD24704A1439BC275B3C3F1C9C6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96691d2a4c347ae1a5dfc0cee8216ec1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xmlns:ns3="81cf108f-c583-47b3-8493-b6de3c823d22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f18913b399a1948fbd1deaf24005938" ns2:_="" ns3:_="">
     <xsd:import namespace="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
@@ -7647,25 +7631,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BA0507E-BEDD-404D-A969-99C7535F08A6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B629CD0-E5EF-4AF0-8E29-670329C3BFDB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <File xmlns="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD9745EB-8FB7-430A-A615-3D6A1A0A8EEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7682,4 +7665,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B629CD0-E5EF-4AF0-8E29-670329C3BFDB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BA0507E-BEDD-404D-A969-99C7535F08A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/source_data/49_data.xlsx
+++ b/source_data/49_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\ARCGIS HUBS\gender_data_portal\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81023499-FDAB-4876-B7C1-DBE9EAF881C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBDA336-F787-40C6-A124-912C56DD212A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-54120" yWindow="-1320" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="49 - Proportion of women and gi" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>REF_AREA_DESC</t>
   </si>
   <si>
-    <t>TIME_PERIOD</t>
-  </si>
-  <si>
     <t>SEX</t>
   </si>
   <si>
@@ -636,6 +633,9 @@
   </si>
   <si>
     <t>UNIT_MEASURE_DESC</t>
+  </si>
+  <si>
+    <t>time_period</t>
   </si>
 </sst>
 </file>
@@ -1490,8 +1490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8:R9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1522,19 +1522,19 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -1546,64 +1546,64 @@
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="Y1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="AA1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -1614,22 +1614,22 @@
         <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D2" s="1">
         <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2">
         <v>462</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2">
         <v>73.096725460000002</v>
@@ -1638,49 +1638,49 @@
         <v>-0.61438502100000003</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L2" s="1">
         <v>2006</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T2" s="1">
         <v>6.2</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB2" s="1">
         <v>2017</v>
@@ -1694,22 +1694,22 @@
         <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D3" s="1">
         <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2">
         <v>524</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" s="2">
         <v>83.94678863</v>
@@ -1718,49 +1718,49 @@
         <v>28.25866332</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L3" s="1">
         <v>2011</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T3" s="1">
         <v>0.4</v>
       </c>
       <c r="U3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X3" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB3" s="1">
         <v>2017</v>
@@ -1774,22 +1774,22 @@
         <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D4" s="1">
         <v>78</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2">
         <v>804</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I4" s="2">
         <v>31.402708019999999</v>
@@ -1798,49 +1798,49 @@
         <v>49.007359450000003</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L4" s="1">
         <v>2007</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T4" s="1">
         <v>1.3</v>
       </c>
       <c r="U4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z4" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB4" s="1">
         <v>2017</v>
@@ -1854,22 +1854,22 @@
         <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D5" s="1">
         <v>78</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2">
         <v>90</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I5" s="2">
         <v>160.15841169999999</v>
@@ -1878,49 +1878,49 @@
         <v>-9.6223917189999995</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L5" s="1">
         <v>2009</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T5" s="1">
         <v>18</v>
       </c>
       <c r="U5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X5" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z5" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB5" s="1">
         <v>2017</v>
@@ -1934,22 +1934,22 @@
         <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D6" s="1">
         <v>78</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2">
         <v>296</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I6" s="2">
         <v>-157.5643005</v>
@@ -1958,49 +1958,49 @@
         <v>1.7688377319999999</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L6" s="1">
         <v>2008</v>
       </c>
       <c r="N6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T6" s="1">
         <v>9.8000000000000007</v>
       </c>
       <c r="U6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X6" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z6" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB6" s="1">
         <v>2017</v>
@@ -2014,22 +2014,22 @@
         <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D7" s="1">
         <v>78</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2">
         <v>548</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I7" s="2">
         <v>167.06797789999999</v>
@@ -2038,49 +2038,49 @@
         <v>-15.34445547</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L7" s="1">
         <v>2009</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T7" s="1">
         <v>33</v>
       </c>
       <c r="U7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X7" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z7" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB7" s="1">
         <v>2017</v>
@@ -2094,22 +2094,22 @@
         <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D8" s="1">
         <v>78</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="2">
         <v>776</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I8" s="2">
         <v>-175.19599909999999</v>
@@ -2118,49 +2118,49 @@
         <v>-21.195113289999998</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L8" s="1">
         <v>2009</v>
       </c>
       <c r="N8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T8" s="1">
         <v>6.3</v>
       </c>
       <c r="U8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X8" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z8" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB8" s="1">
         <v>2017</v>
@@ -2174,22 +2174,22 @@
         <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D9" s="1">
         <v>78</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="2">
         <v>882</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I9" s="2">
         <v>-172.4430749</v>
@@ -2198,49 +2198,49 @@
         <v>-13.61541469</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L9" s="1">
         <v>2000</v>
       </c>
       <c r="N9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T9" s="1">
         <v>10.6</v>
       </c>
       <c r="U9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X9" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y9" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z9" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB9" s="1">
         <v>2017</v>
@@ -2254,22 +2254,22 @@
         <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D10" s="1">
         <v>78</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="2">
         <v>120</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I10" s="2">
         <v>12.741982699999999</v>
@@ -2278,49 +2278,49 @@
         <v>5.692387031</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L10" s="1">
         <v>2011</v>
       </c>
       <c r="N10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T10" s="1">
         <v>5</v>
       </c>
       <c r="U10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="W10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="X10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X10" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y10" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z10" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB10" s="1">
         <v>2017</v>
@@ -2334,22 +2334,22 @@
         <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D11" s="1">
         <v>78</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="2">
         <v>174</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I11" s="2">
         <v>43.342345649999999</v>
@@ -2358,49 +2358,49 @@
         <v>-11.66121732</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L11" s="1">
         <v>2012</v>
       </c>
       <c r="N11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T11" s="1">
         <v>1.5</v>
       </c>
       <c r="U11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="W11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="X11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X11" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y11" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z11" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB11" s="1">
         <v>2017</v>
@@ -2414,22 +2414,22 @@
         <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D12" s="1">
         <v>78</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="2">
         <v>266</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I12" s="2">
         <v>11.787277469999999</v>
@@ -2438,49 +2438,49 @@
         <v>-0.60687619000000004</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L12" s="1">
         <v>2012</v>
       </c>
       <c r="N12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T12" s="1">
         <v>5</v>
       </c>
       <c r="U12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="W12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="X12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X12" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z12" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB12" s="1">
         <v>2017</v>
@@ -2494,22 +2494,22 @@
         <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D13" s="1">
         <v>78</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="2">
         <v>288</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I13" s="2">
         <v>-1.205623522</v>
@@ -2518,49 +2518,49 @@
         <v>7.9648251849999996</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L13" s="1">
         <v>2008</v>
       </c>
       <c r="N13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T13" s="1">
         <v>4.2</v>
       </c>
       <c r="U13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="W13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="X13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X13" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y13" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z13" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB13" s="1">
         <v>2017</v>
@@ -2574,22 +2574,22 @@
         <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D14" s="1">
         <v>78</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" s="2">
         <v>430</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I14" s="2">
         <v>-9.3118790380000007</v>
@@ -2598,49 +2598,49 @@
         <v>6.4483810090000002</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L14" s="1">
         <v>2007</v>
       </c>
       <c r="N14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T14" s="1">
         <v>2.6</v>
       </c>
       <c r="U14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="W14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="X14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X14" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y14" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z14" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB14" s="1">
         <v>2017</v>
@@ -2654,22 +2654,22 @@
         <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D15" s="1">
         <v>78</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="2">
         <v>454</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I15" s="2">
         <v>33.488462499999997</v>
@@ -2678,49 +2678,49 @@
         <v>-13.40819859</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L15" s="1">
         <v>2010</v>
       </c>
       <c r="N15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="P15" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T15" s="1">
         <v>1.7</v>
       </c>
       <c r="U15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="W15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="X15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X15" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y15" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z15" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB15" s="1">
         <v>2017</v>
@@ -2734,22 +2734,22 @@
         <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D16" s="1">
         <v>78</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="2">
         <v>566</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I16" s="2">
         <v>8.0973632559999995</v>
@@ -2758,49 +2758,49 @@
         <v>9.5857890250000004</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L16" s="1">
         <v>2008</v>
       </c>
       <c r="N16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="P16" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S16" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T16" s="1">
         <v>1.8</v>
       </c>
       <c r="U16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="W16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="X16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X16" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y16" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z16" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB16" s="1">
         <v>2017</v>
@@ -2814,22 +2814,22 @@
         <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D17" s="1">
         <v>78</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" s="2">
         <v>566</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I17" s="2">
         <v>8.0973632559999995</v>
@@ -2838,49 +2838,49 @@
         <v>9.5857890250000004</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L17" s="1">
         <v>2013</v>
       </c>
       <c r="N17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="P17" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T17" s="1">
         <v>1.5</v>
       </c>
       <c r="U17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="W17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="X17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X17" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y17" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z17" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB17" s="1">
         <v>2017</v>
@@ -2894,22 +2894,22 @@
         <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D18" s="1">
         <v>78</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" s="2">
         <v>694</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I18" s="2">
         <v>-11.783065840000001</v>
@@ -2918,49 +2918,49 @@
         <v>8.5686041639999999</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L18" s="1">
         <v>2013</v>
       </c>
       <c r="N18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="P18" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T18" s="1">
         <v>0</v>
       </c>
       <c r="U18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="W18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="X18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X18" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y18" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z18" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB18" s="1">
         <v>2017</v>
@@ -2974,22 +2974,22 @@
         <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D19" s="1">
         <v>78</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" s="2">
         <v>800</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I19" s="2">
         <v>32.391004379999998</v>
@@ -2998,49 +2998,49 @@
         <v>1.2795573309999999</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L19" s="1">
         <v>2011</v>
       </c>
       <c r="N19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="P19" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S19" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T19" s="1">
         <v>3.7</v>
       </c>
       <c r="U19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="W19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="X19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X19" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y19" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z19" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB19" s="1">
         <v>2017</v>
@@ -3054,22 +3054,22 @@
         <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D20" s="1">
         <v>78</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" s="2">
         <v>834</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I20" s="2">
         <v>34.805211819999997</v>
@@ -3078,49 +3078,49 @@
         <v>-6.2653326060000003</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L20" s="1">
         <v>2010</v>
       </c>
       <c r="N20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="P20" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T20" s="1">
         <v>2.9</v>
       </c>
       <c r="U20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="W20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="X20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X20" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y20" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z20" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB20" s="1">
         <v>2017</v>
@@ -3134,22 +3134,22 @@
         <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D21" s="1">
         <v>78</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" s="2">
         <v>894</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I21" s="2">
         <v>27.850328999999999</v>
@@ -3158,49 +3158,49 @@
         <v>-14.597010559999999</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L21" s="1">
         <v>2007</v>
       </c>
       <c r="N21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="P21" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T21" s="1">
         <v>2.9</v>
       </c>
       <c r="U21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="W21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="X21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X21" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y21" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z21" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB21" s="1">
         <v>2017</v>
@@ -3214,22 +3214,22 @@
         <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D22" s="1">
         <v>78</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" s="2">
         <v>68</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I22" s="2">
         <v>-64.662242840000005</v>
@@ -3238,49 +3238,49 @@
         <v>-16.71273412</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L22" s="1">
         <v>2003</v>
       </c>
       <c r="N22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="P22" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P22" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q22" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="1" t="s">
+      <c r="T22" s="1">
+        <v>4</v>
+      </c>
+      <c r="U22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T22" s="1">
-        <v>4</v>
-      </c>
-      <c r="U22" s="1" t="s">
+      <c r="V22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V22" s="1" t="s">
+      <c r="W22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="X22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X22" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y22" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z22" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z22" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB22" s="1">
         <v>2017</v>
@@ -3294,22 +3294,22 @@
         <v>49</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D23" s="1">
         <v>78</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" s="2">
         <v>68</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I23" s="2">
         <v>-64.662242840000005</v>
@@ -3318,49 +3318,49 @@
         <v>-16.71273412</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L23" s="1">
         <v>2008</v>
       </c>
       <c r="N23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="P23" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S23" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T23" s="1">
         <v>3.7</v>
       </c>
       <c r="U23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="W23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="X23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X23" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y23" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z23" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z23" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB23" s="1">
         <v>2017</v>
@@ -3374,22 +3374,22 @@
         <v>49</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D24" s="1">
         <v>78</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F24" s="2">
         <v>170</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I24" s="2">
         <v>-73.074467510000005</v>
@@ -3398,49 +3398,49 @@
         <v>3.8882090460000001</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L24" s="1">
         <v>2005</v>
       </c>
       <c r="N24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="P24" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T24" s="1">
         <v>6.1</v>
       </c>
       <c r="U24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="W24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="X24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X24" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y24" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z24" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z24" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB24" s="1">
         <v>2017</v>
@@ -3454,22 +3454,22 @@
         <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D25" s="1">
         <v>78</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F25" s="2">
         <v>170</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I25" s="2">
         <v>-73.074467510000005</v>
@@ -3478,49 +3478,49 @@
         <v>3.8882090460000001</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L25" s="1">
         <v>2010</v>
       </c>
       <c r="N25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="P25" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S25" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T25" s="1">
         <v>13.9</v>
       </c>
       <c r="U25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V25" s="1" t="s">
+      <c r="W25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W25" s="1" t="s">
+      <c r="X25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X25" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y25" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z25" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z25" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB25" s="1">
         <v>2017</v>
@@ -3534,22 +3534,22 @@
         <v>49</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D26" s="1">
         <v>78</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F26" s="2">
         <v>268</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I26" s="2">
         <v>43.371361499999999</v>
@@ -3558,49 +3558,49 @@
         <v>42.048130280000002</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L26" s="1">
         <v>2009</v>
       </c>
       <c r="N26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="P26" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q26" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T26" s="1">
         <v>0.2</v>
       </c>
       <c r="U26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V26" s="1" t="s">
+      <c r="W26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="X26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X26" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y26" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z26" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z26" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB26" s="1">
         <v>2017</v>
@@ -3614,22 +3614,22 @@
         <v>49</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D27" s="1">
         <v>78</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F27" s="2">
         <v>417</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I27" s="2">
         <v>74.523248390000006</v>
@@ -3638,49 +3638,49 @@
         <v>41.462045160000002</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L27" s="1">
         <v>2012</v>
       </c>
       <c r="N27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="P27" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S27" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T27" s="1">
         <v>0.1</v>
       </c>
       <c r="U27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="W27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W27" s="1" t="s">
+      <c r="X27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X27" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y27" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z27" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z27" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB27" s="1">
         <v>2017</v>
@@ -3694,22 +3694,22 @@
         <v>49</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D28" s="1">
         <v>78</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F28" s="2">
         <v>608</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I28" s="2">
         <v>120.86014179999999</v>
@@ -3718,49 +3718,49 @@
         <v>14.16591706</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L28" s="1">
         <v>2008</v>
       </c>
       <c r="N28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="P28" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S28" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T28" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="U28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V28" s="1" t="s">
+      <c r="W28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="X28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X28" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y28" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z28" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z28" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB28" s="1">
         <v>2017</v>
@@ -3774,22 +3774,22 @@
         <v>49</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D29" s="1">
         <v>78</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F29" s="2">
         <v>608</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I29" s="2">
         <v>120.86014179999999</v>
@@ -3798,49 +3798,49 @@
         <v>14.16591706</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L29" s="1">
         <v>2013</v>
       </c>
       <c r="N29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="P29" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T29" s="1">
         <v>1.6</v>
       </c>
       <c r="U29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V29" s="1" t="s">
+      <c r="W29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W29" s="1" t="s">
+      <c r="X29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X29" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y29" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z29" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z29" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB29" s="1">
         <v>2017</v>
@@ -3854,22 +3854,22 @@
         <v>49</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D30" s="1">
         <v>78</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F30" s="2">
         <v>626</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I30" s="2">
         <v>125.9451052</v>
@@ -3878,49 +3878,49 @@
         <v>-8.7974972470000008</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L30" s="1">
         <v>2009</v>
       </c>
       <c r="N30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="P30" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S30" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T30" s="1">
         <v>0.4</v>
       </c>
       <c r="U30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V30" s="1" t="s">
+      <c r="W30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W30" s="1" t="s">
+      <c r="X30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X30" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y30" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z30" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z30" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB30" s="1">
         <v>2017</v>
@@ -3934,22 +3934,22 @@
         <v>49</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D31" s="1">
         <v>78</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F31" s="2">
         <v>356</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I31" s="2">
         <v>79.3608464</v>
@@ -3958,52 +3958,52 @@
         <v>22.346420739999999</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L31" s="1">
         <v>2006</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="P31" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S31" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T31" s="1">
         <v>0.3</v>
       </c>
       <c r="U31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="W31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="X31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X31" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z31" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z31" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB31" s="1">
         <v>2017</v>
@@ -4017,22 +4017,22 @@
         <v>49</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D32" s="1">
         <v>78</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F32" s="2">
         <v>332</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I32" s="2">
         <v>-72.336409579999994</v>
@@ -4041,52 +4041,52 @@
         <v>18.404265389999999</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L32" s="1">
         <v>2006</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="P32" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q32" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T32" s="1">
         <v>2</v>
       </c>
       <c r="U32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V32" s="1" t="s">
+      <c r="W32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W32" s="1" t="s">
+      <c r="X32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X32" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y32" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z32" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z32" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB32" s="1">
         <v>2017</v>
@@ -4100,22 +4100,22 @@
         <v>49</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D33" s="1">
         <v>78</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F33" s="2">
         <v>404</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I33" s="2">
         <v>37.860968159999999</v>
@@ -4124,52 +4124,52 @@
         <v>0.53479727799999999</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L33" s="1">
         <v>2009</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="P33" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S33" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P33" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q33" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T33" s="1">
         <v>3.5</v>
       </c>
       <c r="U33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V33" s="1" t="s">
+      <c r="W33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W33" s="1" t="s">
+      <c r="X33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X33" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y33" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z33" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z33" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB33" s="1">
         <v>2017</v>
@@ -4183,22 +4183,22 @@
         <v>49</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D34" s="1">
         <v>78</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F34" s="2">
         <v>716</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I34" s="2">
         <v>29.86909584</v>
@@ -4207,52 +4207,52 @@
         <v>-19.000754919999999</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L34" s="1">
         <v>2011</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="P34" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S34" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P34" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T34" s="1">
         <v>1.2</v>
       </c>
       <c r="U34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V34" s="1" t="s">
+      <c r="W34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W34" s="1" t="s">
+      <c r="X34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X34" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y34" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z34" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z34" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB34" s="1">
         <v>2017</v>
@@ -4266,22 +4266,22 @@
         <v>49</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D35" s="1">
         <v>78</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F35" s="2">
         <v>180</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I35" s="2">
         <v>23.654965069999999</v>
@@ -4290,52 +4290,52 @@
         <v>-2.8771547320000002</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L35" s="1">
         <v>2014</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O35" s="1" t="s">
+      <c r="P35" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S35" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T35" s="1">
         <v>2.7</v>
       </c>
       <c r="U35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V35" s="1" t="s">
+      <c r="W35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W35" s="1" t="s">
+      <c r="X35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X35" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y35" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z35" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z35" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB35" s="1">
         <v>2017</v>
@@ -4349,22 +4349,22 @@
         <v>49</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D36" s="1">
         <v>78</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F36" s="2">
         <v>51</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I36" s="2">
         <v>44.938393169999998</v>
@@ -4373,49 +4373,49 @@
         <v>40.294997410000001</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L36" s="1">
         <v>2008</v>
       </c>
       <c r="N36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="P36" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S36" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T36" s="1">
         <v>0.1</v>
       </c>
       <c r="U36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V36" s="1" t="s">
+      <c r="W36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W36" s="1" t="s">
+      <c r="X36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X36" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y36" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z36" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z36" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB36" s="1">
         <v>2017</v>
@@ -4429,22 +4429,22 @@
         <v>49</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D37" s="1">
         <v>78</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F37" s="2">
         <v>792</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I37" s="2">
         <v>35.428903290000001</v>
@@ -4453,49 +4453,49 @@
         <v>38.989968400000002</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L37" s="1">
         <v>2008</v>
       </c>
       <c r="N37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O37" s="1" t="s">
+      <c r="P37" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S37" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T37" s="1">
         <v>3.3</v>
       </c>
       <c r="U37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V37" s="1" t="s">
+      <c r="W37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W37" s="1" t="s">
+      <c r="X37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X37" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y37" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z37" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z37" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB37" s="1">
         <v>2017</v>
@@ -4509,22 +4509,22 @@
         <v>49</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D38" s="1">
         <v>78</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F38" s="2">
         <v>704</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I38" s="2">
         <v>105.802499</v>
@@ -4533,49 +4533,49 @@
         <v>10.096430789999999</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L38" s="1">
         <v>2010</v>
       </c>
       <c r="N38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O38" s="1" t="s">
+      <c r="P38" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S38" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T38" s="1">
         <v>2.2999999999999998</v>
       </c>
       <c r="U38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V38" s="1" t="s">
+      <c r="W38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W38" s="1" t="s">
+      <c r="X38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X38" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y38" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z38" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z38" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB38" s="1">
         <v>2017</v>
@@ -4589,22 +4589,22 @@
         <v>49</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D39" s="1">
         <v>78</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F39" s="2">
         <v>242</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I39" s="2">
         <v>177.96608839999999</v>
@@ -4613,52 +4613,52 @@
         <v>-17.833015660000001</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L39" s="1">
         <v>2011</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="P39" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S39" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T39" s="1">
         <v>8.5</v>
       </c>
       <c r="U39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V39" s="1" t="s">
+      <c r="W39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W39" s="1" t="s">
+      <c r="X39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X39" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y39" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z39" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z39" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB39" s="1">
         <v>2017</v>
@@ -4672,22 +4672,22 @@
         <v>49</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D40" s="1">
         <v>78</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F40" s="2">
         <v>702</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I40" s="2">
         <v>103.8107883</v>
@@ -4696,49 +4696,49 @@
         <v>1.3610091550000001</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L40" s="1">
         <v>2009</v>
       </c>
       <c r="N40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="P40" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S40" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T40" s="1">
         <v>3.3</v>
       </c>
       <c r="U40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V40" s="1" t="s">
+      <c r="W40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W40" s="1" t="s">
+      <c r="X40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X40" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y40" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z40" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z40" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB40" s="1">
         <v>2017</v>
@@ -4752,22 +4752,22 @@
         <v>49</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D41" s="1">
         <v>78</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F41" s="2">
         <v>36</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I41" s="2">
         <v>134.34994119999999</v>
@@ -4776,52 +4776,52 @@
         <v>-25.577172019999999</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L41" s="1">
         <v>2003</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="P41" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T41" s="1">
         <v>27</v>
       </c>
       <c r="U41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V41" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V41" s="1" t="s">
+      <c r="W41" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W41" s="1" t="s">
+      <c r="X41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X41" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y41" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z41" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z41" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB41" s="1">
         <v>2017</v>
@@ -4835,22 +4835,22 @@
         <v>49</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D42" s="1">
         <v>78</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F42" s="2">
         <v>40</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I42" s="2">
         <v>14.141724719999999</v>
@@ -4859,49 +4859,49 @@
         <v>47.58704857</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L42" s="1">
         <v>2014</v>
       </c>
       <c r="N42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O42" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="P42" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P42" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q42" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="1" t="s">
+      <c r="T42" s="1">
+        <v>4</v>
+      </c>
+      <c r="U42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T42" s="1">
-        <v>4</v>
-      </c>
-      <c r="U42" s="1" t="s">
+      <c r="V42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V42" s="1" t="s">
+      <c r="W42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W42" s="1" t="s">
+      <c r="X42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X42" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y42" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z42" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z42" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB42" s="1">
         <v>2017</v>
@@ -4915,22 +4915,22 @@
         <v>49</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D43" s="1">
         <v>78</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F43" s="2">
         <v>56</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I43" s="2">
         <v>4.6609764560000002</v>
@@ -4939,49 +4939,49 @@
         <v>50.641049750000001</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L43" s="1">
         <v>2014</v>
       </c>
       <c r="N43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="P43" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P43" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q43" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T43" s="1">
         <v>8</v>
       </c>
       <c r="U43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V43" s="1" t="s">
+      <c r="W43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W43" s="1" t="s">
+      <c r="X43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X43" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y43" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z43" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z43" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB43" s="1">
         <v>2017</v>
@@ -4995,22 +4995,22 @@
         <v>49</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D44" s="1">
         <v>78</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F44" s="2">
         <v>100</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I44" s="2">
         <v>25.237631530000002</v>
@@ -5019,49 +5019,49 @@
         <v>42.757313230000001</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L44" s="1">
         <v>2014</v>
       </c>
       <c r="N44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O44" s="1" t="s">
+      <c r="P44" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S44" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P44" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q44" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T44" s="1">
         <v>6</v>
       </c>
       <c r="U44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V44" s="1" t="s">
+      <c r="W44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W44" s="1" t="s">
+      <c r="X44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X44" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y44" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z44" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z44" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB44" s="1">
         <v>2017</v>
@@ -5075,22 +5075,22 @@
         <v>49</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D45" s="1">
         <v>78</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F45" s="2">
         <v>191</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I45" s="2">
         <v>17.958745530000002</v>
@@ -5099,49 +5099,49 @@
         <v>45.451722119999999</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L45" s="1">
         <v>2014</v>
       </c>
       <c r="N45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="P45" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P45" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q45" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T45" s="1">
         <v>3</v>
       </c>
       <c r="U45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V45" s="1" t="s">
+      <c r="W45" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W45" s="1" t="s">
+      <c r="X45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X45" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y45" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z45" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z45" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB45" s="1">
         <v>2017</v>
@@ -5155,22 +5155,22 @@
         <v>49</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D46" s="1">
         <v>78</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F46" s="2">
         <v>196</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I46" s="2">
         <v>33.222859640000003</v>
@@ -5179,49 +5179,49 @@
         <v>35.056594369999999</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L46" s="1">
         <v>2014</v>
       </c>
       <c r="N46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O46" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="P46" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P46" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q46" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T46" s="1">
         <v>2</v>
       </c>
       <c r="U46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V46" s="1" t="s">
+      <c r="W46" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W46" s="1" t="s">
+      <c r="X46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X46" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y46" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z46" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z46" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB46" s="1">
         <v>2017</v>
@@ -5235,22 +5235,22 @@
         <v>49</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D47" s="1">
         <v>78</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F47" s="2">
         <v>203</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I47" s="2">
         <v>15.33151382</v>
@@ -5259,49 +5259,49 @@
         <v>49.739138709999999</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L47" s="1">
         <v>2014</v>
       </c>
       <c r="N47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O47" s="1" t="s">
+      <c r="P47" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P47" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q47" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="R47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="1" t="s">
+      <c r="T47" s="1">
+        <v>4</v>
+      </c>
+      <c r="U47" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T47" s="1">
-        <v>4</v>
-      </c>
-      <c r="U47" s="1" t="s">
+      <c r="V47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V47" s="1" t="s">
+      <c r="W47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W47" s="1" t="s">
+      <c r="X47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X47" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y47" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z47" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z47" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB47" s="1">
         <v>2017</v>
@@ -5315,22 +5315,22 @@
         <v>49</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D48" s="1">
         <v>78</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F48" s="2">
         <v>208</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I48" s="2">
         <v>9.3265712829999998</v>
@@ -5339,49 +5339,49 @@
         <v>56.038297210000003</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L48" s="1">
         <v>2014</v>
       </c>
       <c r="N48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O48" s="1" t="s">
+      <c r="P48" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P48" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q48" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="R48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T48" s="1">
         <v>11</v>
       </c>
       <c r="U48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V48" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V48" s="1" t="s">
+      <c r="W48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W48" s="1" t="s">
+      <c r="X48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X48" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y48" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z48" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z48" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB48" s="1">
         <v>2017</v>
@@ -5395,22 +5395,22 @@
         <v>49</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D49" s="1">
         <v>78</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F49" s="2">
         <v>246</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I49" s="2">
         <v>23.308447000000001</v>
@@ -5419,49 +5419,49 @@
         <v>61.915867380000002</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L49" s="1">
         <v>2014</v>
       </c>
       <c r="N49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O49" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="P49" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q49" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P49" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q49" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T49" s="1">
         <v>11</v>
       </c>
       <c r="U49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V49" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V49" s="1" t="s">
+      <c r="W49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W49" s="1" t="s">
+      <c r="X49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X49" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y49" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z49" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z49" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB49" s="1">
         <v>2017</v>
@@ -5475,22 +5475,22 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D50" s="1">
         <v>78</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F50" s="2">
         <v>276</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I50" s="2">
         <v>10.3806066</v>
@@ -5499,49 +5499,49 @@
         <v>51.088627430000003</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L50" s="1">
         <v>2014</v>
       </c>
       <c r="N50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O50" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O50" s="1" t="s">
+      <c r="P50" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S50" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P50" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q50" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T50" s="1">
         <v>7</v>
       </c>
       <c r="U50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V50" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V50" s="1" t="s">
+      <c r="W50" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W50" s="1" t="s">
+      <c r="X50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X50" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y50" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z50" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z50" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB50" s="1">
         <v>2017</v>
@@ -5555,22 +5555,22 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D51" s="1">
         <v>78</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F51" s="2">
         <v>300</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I51" s="2">
         <v>22.583078270000001</v>
@@ -5579,49 +5579,49 @@
         <v>39.47301873</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L51" s="1">
         <v>2014</v>
       </c>
       <c r="N51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O51" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O51" s="1" t="s">
+      <c r="P51" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S51" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P51" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q51" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T51" s="1">
         <v>1</v>
       </c>
       <c r="U51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V51" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V51" s="1" t="s">
+      <c r="W51" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W51" s="1" t="s">
+      <c r="X51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X51" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y51" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z51" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z51" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB51" s="1">
         <v>2017</v>
@@ -5635,22 +5635,22 @@
         <v>49</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D52" s="1">
         <v>78</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F52" s="2">
         <v>348</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I52" s="2">
         <v>19.412215190000001</v>
@@ -5659,49 +5659,49 @@
         <v>47.1651448</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L52" s="1">
         <v>2014</v>
       </c>
       <c r="N52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O52" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O52" s="1" t="s">
+      <c r="P52" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P52" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q52" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="R52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T52" s="1">
         <v>3</v>
       </c>
       <c r="U52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V52" s="1" t="s">
+      <c r="W52" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W52" s="1" t="s">
+      <c r="X52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X52" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y52" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z52" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z52" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB52" s="1">
         <v>2017</v>
@@ -5715,22 +5715,22 @@
         <v>49</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="1">
         <v>78</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F53" s="2">
         <v>372</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I53" s="2">
         <v>-7.1214252719999998</v>
@@ -5739,49 +5739,49 @@
         <v>53.252740539999998</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L53" s="1">
         <v>2014</v>
       </c>
       <c r="N53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O53" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O53" s="1" t="s">
+      <c r="P53" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S53" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P53" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q53" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S53" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T53" s="1">
         <v>5</v>
       </c>
       <c r="U53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V53" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V53" s="1" t="s">
+      <c r="W53" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W53" s="1" t="s">
+      <c r="X53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X53" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y53" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z53" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z53" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB53" s="1">
         <v>2017</v>
@@ -5795,22 +5795,22 @@
         <v>49</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="1">
         <v>78</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F54" s="2">
         <v>428</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I54" s="2">
         <v>26.424618760000001</v>
@@ -5819,49 +5819,49 @@
         <v>56.641966359999998</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L54" s="1">
         <v>2014</v>
       </c>
       <c r="N54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O54" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O54" s="1" t="s">
+      <c r="P54" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S54" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P54" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q54" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T54" s="1">
         <v>7</v>
       </c>
       <c r="U54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V54" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V54" s="1" t="s">
+      <c r="W54" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W54" s="1" t="s">
+      <c r="X54" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X54" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y54" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z54" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z54" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB54" s="1">
         <v>2017</v>
@@ -5875,22 +5875,22 @@
         <v>49</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="1">
         <v>78</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F55" s="2">
         <v>440</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I55" s="2">
         <v>23.905178070000002</v>
@@ -5899,49 +5899,49 @@
         <v>55.336803089999997</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L55" s="1">
         <v>2014</v>
       </c>
       <c r="N55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O55" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O55" s="1" t="s">
+      <c r="P55" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S55" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P55" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q55" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="R55" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S55" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T55" s="1">
         <v>5</v>
       </c>
       <c r="U55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V55" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V55" s="1" t="s">
+      <c r="W55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W55" s="1" t="s">
+      <c r="X55" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X55" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y55" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z55" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z55" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB55" s="1">
         <v>2017</v>
@@ -5955,22 +5955,22 @@
         <v>49</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="1">
         <v>78</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F56" s="2">
         <v>442</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I56" s="2">
         <v>6.0926565630000002</v>
@@ -5979,49 +5979,49 @@
         <v>49.776795380000003</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L56" s="1">
         <v>2014</v>
       </c>
       <c r="N56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O56" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O56" s="1" t="s">
+      <c r="P56" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S56" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P56" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q56" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="R56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S56" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T56" s="1">
         <v>8</v>
       </c>
       <c r="U56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V56" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V56" s="1" t="s">
+      <c r="W56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W56" s="1" t="s">
+      <c r="X56" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X56" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y56" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z56" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z56" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB56" s="1">
         <v>2017</v>
@@ -6035,22 +6035,22 @@
         <v>49</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D57" s="1">
         <v>78</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F57" s="2">
         <v>528</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I57" s="2">
         <v>5.3314805679999999</v>
@@ -6059,49 +6059,49 @@
         <v>51.867288840000001</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L57" s="1">
         <v>2014</v>
       </c>
       <c r="N57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O57" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O57" s="1" t="s">
+      <c r="P57" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q57" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P57" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q57" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T57" s="1">
         <v>12</v>
       </c>
       <c r="U57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V57" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V57" s="1" t="s">
+      <c r="W57" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W57" s="1" t="s">
+      <c r="X57" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X57" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y57" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z57" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z57" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB57" s="1">
         <v>2017</v>
@@ -6115,22 +6115,22 @@
         <v>49</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D58" s="1">
         <v>78</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F58" s="2">
         <v>616</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I58" s="2">
         <v>19.40660158</v>
@@ -6139,49 +6139,49 @@
         <v>52.122673300000002</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L58" s="1">
         <v>2014</v>
       </c>
       <c r="N58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O58" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O58" s="1" t="s">
+      <c r="P58" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q58" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P58" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q58" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="R58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T58" s="1">
         <v>2</v>
       </c>
       <c r="U58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V58" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V58" s="1" t="s">
+      <c r="W58" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W58" s="1" t="s">
+      <c r="X58" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X58" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y58" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z58" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z58" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB58" s="1">
         <v>2017</v>
@@ -6195,22 +6195,22 @@
         <v>49</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D59" s="1">
         <v>78</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F59" s="2">
         <v>642</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I59" s="2">
         <v>24.98481009</v>
@@ -6219,49 +6219,49 @@
         <v>45.838935630000002</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L59" s="1">
         <v>2014</v>
       </c>
       <c r="N59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O59" s="1" t="s">
+      <c r="P59" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q59" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P59" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q59" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T59" s="1">
         <v>2</v>
       </c>
       <c r="U59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V59" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V59" s="1" t="s">
+      <c r="W59" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W59" s="1" t="s">
+      <c r="X59" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X59" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y59" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z59" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z59" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB59" s="1">
         <v>2017</v>
@@ -6275,22 +6275,22 @@
         <v>49</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D60" s="1">
         <v>78</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F60" s="2">
         <v>703</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I60" s="2">
         <v>19.48495604</v>
@@ -6299,49 +6299,49 @@
         <v>48.707414460000003</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L60" s="1">
         <v>2014</v>
       </c>
       <c r="N60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O60" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O60" s="1" t="s">
+      <c r="P60" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q60" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P60" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q60" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="R60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="1" t="s">
+      <c r="T60" s="1">
+        <v>4</v>
+      </c>
+      <c r="U60" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T60" s="1">
-        <v>4</v>
-      </c>
-      <c r="U60" s="1" t="s">
+      <c r="V60" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V60" s="1" t="s">
+      <c r="W60" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W60" s="1" t="s">
+      <c r="X60" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X60" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y60" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z60" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z60" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB60" s="1">
         <v>2017</v>
@@ -6355,22 +6355,22 @@
         <v>49</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D61" s="1">
         <v>78</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F61" s="2">
         <v>705</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I61" s="2">
         <v>14.82209486</v>
@@ -6379,49 +6379,49 @@
         <v>46.11958061</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L61" s="1">
         <v>2014</v>
       </c>
       <c r="N61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O61" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O61" s="1" t="s">
+      <c r="P61" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q61" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S61" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P61" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q61" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S61" s="1" t="s">
+      <c r="T61" s="1">
+        <v>4</v>
+      </c>
+      <c r="U61" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T61" s="1">
-        <v>4</v>
-      </c>
-      <c r="U61" s="1" t="s">
+      <c r="V61" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V61" s="1" t="s">
+      <c r="W61" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W61" s="1" t="s">
+      <c r="X61" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X61" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y61" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z61" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z61" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB61" s="1">
         <v>2017</v>
@@ -6435,22 +6435,22 @@
         <v>49</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D62" s="1">
         <v>78</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F62" s="2">
         <v>724</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I62" s="2">
         <v>-3.5540782960000001</v>
@@ -6459,49 +6459,49 @@
         <v>40.392114720000002</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L62" s="1">
         <v>2014</v>
       </c>
       <c r="N62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O62" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O62" s="1" t="s">
+      <c r="P62" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q62" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P62" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q62" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="R62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T62" s="1">
         <v>3</v>
       </c>
       <c r="U62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V62" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V62" s="1" t="s">
+      <c r="W62" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W62" s="1" t="s">
+      <c r="X62" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X62" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y62" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z62" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z62" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB62" s="1">
         <v>2017</v>
@@ -6515,22 +6515,22 @@
         <v>49</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D63" s="1">
         <v>78</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F63" s="2">
         <v>392</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I63" s="2">
         <v>139.27161029999999</v>
@@ -6539,52 +6539,52 @@
         <v>36.655453899999998</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L63" s="1">
         <v>2003</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O63" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O63" s="1" t="s">
+      <c r="P63" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S63" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q63" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="R63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S63" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T63" s="1">
         <v>3.5</v>
       </c>
       <c r="U63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V63" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V63" s="1" t="s">
+      <c r="W63" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W63" s="1" t="s">
+      <c r="X63" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X63" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y63" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z63" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z63" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB63" s="1">
         <v>2017</v>
@@ -6598,22 +6598,22 @@
         <v>49</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D64" s="1">
         <v>78</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F64" s="2">
         <v>76</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I64" s="2">
         <v>-53.08432878</v>
@@ -6622,55 +6622,55 @@
         <v>-10.776685609999999</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L64" s="1">
         <v>2003</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O64" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O64" s="1" t="s">
+      <c r="P64" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S64" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S64" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T64" s="1">
         <v>6.8</v>
       </c>
       <c r="U64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V64" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V64" s="1" t="s">
+      <c r="W64" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W64" s="1" t="s">
+      <c r="X64" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X64" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y64" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z64" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="Z64" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="AA64" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AB64" s="1">
         <v>2017</v>
@@ -6684,22 +6684,22 @@
         <v>49</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D65" s="1">
         <v>78</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F65" s="2">
         <v>834</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I65" s="2">
         <v>34.805211819999997</v>
@@ -6708,52 +6708,52 @@
         <v>-6.2653326060000003</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L65" s="1">
         <v>2002</v>
       </c>
       <c r="N65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O65" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O65" s="1" t="s">
+      <c r="P65" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S65" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q65" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="R65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S65" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T65" s="1">
         <v>11.5</v>
       </c>
       <c r="U65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V65" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V65" s="1" t="s">
+      <c r="W65" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W65" s="1" t="s">
+      <c r="X65" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X65" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y65" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z65" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="Z65" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="AA65" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB65" s="1">
         <v>2017</v>
@@ -6767,22 +6767,22 @@
         <v>49</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D66" s="1">
         <v>78</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F66" s="2">
         <v>50</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I66" s="2">
         <v>89.176607880000006</v>
@@ -6791,49 +6791,49 @@
         <v>22.869616220000001</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L66" s="1">
         <v>2011</v>
       </c>
       <c r="N66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O66" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O66" s="1" t="s">
+      <c r="P66" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S66" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q66" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="R66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T66" s="1">
         <v>4.4000000000000004</v>
       </c>
       <c r="U66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V66" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V66" s="1" t="s">
+      <c r="W66" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W66" s="1" t="s">
+      <c r="X66" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X66" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y66" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z66" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z66" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB66" s="1">
         <v>2017</v>
@@ -6847,22 +6847,22 @@
         <v>49</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D67" s="1">
         <v>78</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F67" s="2">
         <v>233</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I67" s="2">
         <v>25.84093481</v>
@@ -6871,49 +6871,49 @@
         <v>58.684871719999997</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L67" s="1">
         <v>2014</v>
       </c>
       <c r="N67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O67" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O67" s="1" t="s">
+      <c r="P67" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S67" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q67" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S67" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T67" s="1">
         <v>9</v>
       </c>
       <c r="U67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V67" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V67" s="1" t="s">
+      <c r="W67" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W67" s="1" t="s">
+      <c r="X67" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X67" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y67" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z67" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z67" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB67" s="1">
         <v>2017</v>
@@ -6927,22 +6927,22 @@
         <v>49</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D68" s="1">
         <v>78</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F68" s="2">
         <v>470</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I68" s="2">
         <v>14.44617519</v>
@@ -6951,49 +6951,49 @@
         <v>35.891942749999998</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L68" s="1">
         <v>2014</v>
       </c>
       <c r="N68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O68" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O68" s="1" t="s">
+      <c r="P68" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S68" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P68" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q68" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="R68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S68" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T68" s="1">
         <v>5</v>
       </c>
       <c r="U68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V68" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V68" s="1" t="s">
+      <c r="W68" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W68" s="1" t="s">
+      <c r="X68" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X68" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y68" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z68" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z68" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB68" s="1">
         <v>2017</v>
@@ -7007,22 +7007,22 @@
         <v>49</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D69" s="1">
         <v>78</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F69" s="2">
         <v>688</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I69" s="2">
         <v>20.805876000000001</v>
@@ -7031,49 +7031,49 @@
         <v>44.031456970000001</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L69" s="1">
         <v>2003</v>
       </c>
       <c r="N69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O69" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O69" s="1" t="s">
+      <c r="P69" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S69" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q69" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="R69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S69" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T69" s="1">
         <v>3.9</v>
       </c>
       <c r="U69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V69" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V69" s="1" t="s">
+      <c r="W69" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W69" s="1" t="s">
+      <c r="X69" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X69" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y69" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z69" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z69" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB69" s="1">
         <v>2017</v>
@@ -7087,22 +7087,22 @@
         <v>49</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D70" s="1">
         <v>78</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F70" s="2">
         <v>231</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I70" s="2">
         <v>39.635052960000003</v>
@@ -7111,49 +7111,49 @@
         <v>8.6312231809999993</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L70" s="1">
         <v>2002</v>
       </c>
       <c r="N70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O70" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O70" s="1" t="s">
+      <c r="P70" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S70" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P70" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q70" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="R70" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S70" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T70" s="1">
         <v>0.3</v>
       </c>
       <c r="U70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V70" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V70" s="1" t="s">
+      <c r="W70" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W70" s="1" t="s">
+      <c r="X70" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X70" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y70" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z70" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z70" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB70" s="1">
         <v>2017</v>
@@ -7167,22 +7167,22 @@
         <v>49</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D71" s="1">
         <v>78</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F71" s="2">
         <v>516</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I71" s="2">
         <v>17.219078849999999</v>
@@ -7191,49 +7191,49 @@
         <v>-22.138170680000002</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L71" s="1">
         <v>2002</v>
       </c>
       <c r="N71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O71" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O71" s="1" t="s">
+      <c r="P71" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S71" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q71" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="R71" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S71" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T71" s="1">
         <v>6.4</v>
       </c>
       <c r="U71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V71" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V71" s="1" t="s">
+      <c r="W71" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W71" s="1" t="s">
+      <c r="X71" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X71" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y71" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z71" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z71" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB71" s="1">
         <v>2017</v>
@@ -7247,22 +7247,22 @@
         <v>49</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D72" s="1">
         <v>78</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F72" s="2">
         <v>764</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I72" s="2">
         <v>101.0202951</v>
@@ -7271,49 +7271,49 @@
         <v>15.13089239</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L72" s="1">
         <v>2005</v>
       </c>
       <c r="N72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O72" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O72" s="1" t="s">
+      <c r="P72" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P72" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q72" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="R72" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T72" s="1">
         <v>6.1</v>
       </c>
       <c r="U72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V72" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V72" s="1" t="s">
+      <c r="W72" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W72" s="1" t="s">
+      <c r="X72" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X72" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y72" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z72" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z72" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB72" s="1">
         <v>2017</v>
@@ -7327,22 +7327,22 @@
         <v>49</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D73" s="1">
         <v>78</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F73" s="2">
         <v>764</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I73" s="2">
         <v>101.0202951</v>
@@ -7351,49 +7351,49 @@
         <v>15.13089239</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L73" s="1">
         <v>2002</v>
       </c>
       <c r="N73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O73" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O73" s="1" t="s">
+      <c r="P73" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S73" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q73" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="R73" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S73" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="T73" s="1">
         <v>2.6</v>
       </c>
       <c r="U73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V73" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V73" s="1" t="s">
+      <c r="W73" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W73" s="1" t="s">
+      <c r="X73" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X73" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Y73" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z73" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="Z73" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AB73" s="1">
         <v>2017</v>
@@ -7409,6 +7409,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <File xmlns="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1636FD24704A1439BC275B3C3F1C9C6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96691d2a4c347ae1a5dfc0cee8216ec1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xmlns:ns3="81cf108f-c583-47b3-8493-b6de3c823d22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f18913b399a1948fbd1deaf24005938" ns2:_="" ns3:_="">
     <xsd:import namespace="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
@@ -7631,24 +7648,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BA0507E-BEDD-404D-A969-99C7535F08A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <File xmlns="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B629CD0-E5EF-4AF0-8E29-670329C3BFDB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD9745EB-8FB7-430A-A615-3D6A1A0A8EEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7665,22 +7683,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B629CD0-E5EF-4AF0-8E29-670329C3BFDB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BA0507E-BEDD-404D-A969-99C7535F08A6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>